--- a/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
+++ b/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\3.project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED0719-18CC-49BE-8F8F-095E90BFC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B28BE-ED03-4D04-BBD9-464190860E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sass files" sheetId="1" r:id="rId1"/>
+    <sheet name="Font" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>構成</t>
   </si>
@@ -130,6 +131,60 @@
   </si>
   <si>
     <t>Check browser</t>
+  </si>
+  <si>
+    <t>Font: OpenSans</t>
+  </si>
+  <si>
+    <t>Kiểu: Semibold</t>
+  </si>
+  <si>
+    <t>Kích thước chữ là 30px</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>Chọn hết</t>
+  </si>
+  <si>
+    <t>@import url('https://fonts.googleapis.com/css2?family=Open+Sans:ital,wght@0,300;0,400;0,500;0,600;0,700;0,800;1,300;1,400;1,500;1,600;1,700;1,800&amp;display=swap');</t>
+  </si>
+  <si>
+    <t>Vì vậy nên trong main.scss fonts được kéo vào trước variable</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>$font-open-sans : 'Open Sans', sans-serif;</t>
+  </si>
+  <si>
+    <t>$font-title     : $font-open-sans;</t>
+  </si>
+  <si>
+    <t>$font-text      : $font-open-sans;</t>
+  </si>
+  <si>
+    <t>* {</t>
+  </si>
+  <si>
+    <t>    font-family: $font-text;</t>
+  </si>
+  <si>
+    <t>header.html</t>
+  </si>
+  <si>
+    <t>&lt;header&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;h3&gt;ABC 123&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;p&gt;Lorem ipsum dolor sit amet consectetur, adipisicing elit. Nemo, quam.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/header&gt;</t>
   </si>
 </sst>
 </file>
@@ -252,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -266,6 +321,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,6 +489,513 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>497025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAF47B9-EA48-223E-35D6-97A73C140015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="447676"/>
+          <a:ext cx="9545775" cy="6534150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>360928</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEAD8979-3728-8C4B-B8F2-4C336BDB3E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="7505700"/>
+          <a:ext cx="8171428" cy="5971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>156857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404A2B3D-BA7B-B914-3D20-4A71C0F2B03A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762001" y="13792200"/>
+          <a:ext cx="11039474" cy="5605157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>158212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE5AC80-3B25-3AC1-722F-6AE5E13ABECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="19878675"/>
+          <a:ext cx="11439525" cy="5235037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>2199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97324A4F-00D9-56C9-6ADF-CAD34F23278E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="25346024"/>
+          <a:ext cx="11106149" cy="5707675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>249748</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FAFCA6-64D9-3BA6-B22F-0C7B4E6F676D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="31241999"/>
+          <a:ext cx="11222548" cy="5686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>515399</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBD39C7-1393-8634-3789-06EAB194147C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="37147501"/>
+          <a:ext cx="11488199" cy="5867400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01900B45-4257-FC58-DAFE-7EDBDD54D208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="752475" y="42167175"/>
+          <a:ext cx="8677275" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8512312D-B4D3-155E-CA88-FF341331FA84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="44148375"/>
+          <a:ext cx="11220449" cy="5697045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>12796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4888C593-A9EF-A3B8-26EC-04078140378F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="59169300"/>
+          <a:ext cx="11344275" cy="5422996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4C489C-A518-8995-24A4-760370CB05D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="57321450"/>
+          <a:ext cx="5305425" cy="5467350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -703,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,4 +1708,508 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058F9641-4FFE-4744-A4F0-293E8710F5CA}">
+  <dimension ref="A4:R310"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="G300" sqref="G300"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B231" s="4"/>
+      <c r="C231" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B232" s="4"/>
+      <c r="C232" s="9"/>
+      <c r="D232" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="5"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B233" s="4"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="4"/>
+      <c r="C234" s="9"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B235" s="4"/>
+      <c r="C235" s="9"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="4"/>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" s="11"/>
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B237" s="4"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G237" s="11"/>
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B238" s="4"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G238" s="11"/>
+      <c r="H238" s="5"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="4"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G239" s="11"/>
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="4"/>
+      <c r="C240" s="9"/>
+      <c r="D240" s="9"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="4"/>
+      <c r="C241" s="9"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G241" s="11"/>
+      <c r="H241" s="5"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B242" s="4"/>
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="13"/>
+      <c r="G242" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B243" s="4"/>
+      <c r="C243" s="9"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G243" s="11"/>
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B244" s="4"/>
+      <c r="C244" s="9"/>
+      <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G244" s="11"/>
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B245" s="4"/>
+      <c r="C245" s="9"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G245" s="11"/>
+      <c r="H245" s="5"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B246" s="4"/>
+      <c r="C246" s="9"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G246" s="11"/>
+      <c r="H246" s="5"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B247" s="4"/>
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G247" s="9"/>
+      <c r="H247" s="5"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B248" s="4"/>
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="5"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B249" s="4"/>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="9"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="9"/>
+      <c r="H249" s="5"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B250" s="4"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250" s="9"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="5"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B251" s="4"/>
+      <c r="C251" s="9"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F251" s="9"/>
+      <c r="G251" s="9"/>
+      <c r="H251" s="5"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B252" s="4"/>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="5"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="6"/>
+      <c r="C253" s="7"/>
+      <c r="D253" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" s="7"/>
+      <c r="H253" s="8"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+      <c r="L257" s="2"/>
+      <c r="M257" s="2"/>
+      <c r="N257" s="2"/>
+      <c r="O257" s="2"/>
+      <c r="P257" s="2"/>
+      <c r="Q257" s="2"/>
+      <c r="R257" s="3"/>
+    </row>
+    <row r="258" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B258" s="6"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" s="7"/>
+      <c r="H258" s="7"/>
+      <c r="I258" s="7"/>
+      <c r="J258" s="7"/>
+      <c r="K258" s="7"/>
+      <c r="L258" s="7"/>
+      <c r="M258" s="7"/>
+      <c r="N258" s="7"/>
+      <c r="O258" s="7"/>
+      <c r="P258" s="7"/>
+      <c r="Q258" s="7"/>
+      <c r="R258" s="8"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="3"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B294" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C294" s="9"/>
+      <c r="D294" s="9"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="9"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="5"/>
+      <c r="I294" t="s">
+        <v>42</v>
+      </c>
+      <c r="J294" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B295" s="4"/>
+      <c r="C295" s="9"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="9"/>
+      <c r="G295" s="9"/>
+      <c r="H295" s="5"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B296" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C296" s="9"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="5"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B297" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C297" s="7"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="7"/>
+      <c r="F297" s="7"/>
+      <c r="G297" s="7"/>
+      <c r="H297" s="8"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B300" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C300" s="2"/>
+      <c r="D300" s="3"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B301" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C301" s="9"/>
+      <c r="D301" s="5"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B302" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C302" s="7"/>
+      <c r="D302" s="8"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B305" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2"/>
+      <c r="I305" s="3"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B306" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C306" s="9"/>
+      <c r="D306" s="9"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="9"/>
+      <c r="H306" s="9"/>
+      <c r="I306" s="5"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B307" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C307" s="9"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="9"/>
+      <c r="H307" s="9"/>
+      <c r="I307" s="5"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B308" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C308" s="7"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" s="7"/>
+      <c r="H308" s="7"/>
+      <c r="I308" s="8"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
+++ b/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\3.project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13B28BE-ED03-4D04-BBD9-464190860E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF557E-24C3-4B15-84B7-EC7FB72D81A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sass files" sheetId="1" r:id="rId1"/>
     <sheet name="Font" sheetId="2" r:id="rId2"/>
+    <sheet name="HTML structure" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
   <si>
     <t>構成</t>
   </si>
@@ -185,6 +186,117 @@
   </si>
   <si>
     <t>&lt;/header&gt;</t>
+  </si>
+  <si>
+    <t>fonts</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>logo.png</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>    &lt;div class="container"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- HEADER LOGO : START --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div class="header-logo pull-left"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;a href="#"&gt;&lt;img src="./images/logo.png" alt="logo"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- HEADER LOGO : END --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>        &lt;!-- HEADER MENU : START --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;nav class="header-menu pull-right"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;ul class="menu"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;li class="activate" &gt;&lt;a href="#"&gt;HOME&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;li&gt;&lt;a href="#"&gt;ABOUT&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;li&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;a href="#"&gt;PORTFOLIO&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;ul class="sub-menu"&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;li&gt;&lt;a href="#"&gt;Portfolio Page&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;li&gt;&lt;a href="#"&gt;Portfolio Page&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;ul class="sub-sub-menu"&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;&lt;a href="#"&gt;Sub-Menu 1&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;&lt;a href="#"&gt;Sub-Menu 2&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;&lt;a href="#"&gt;Sub-Menu 3&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;li&gt;&lt;a href="#"&gt;BLOG&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;li&gt;&lt;a href="#"&gt;features&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;li&gt;&lt;a href="#"&gt;CONTACT&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;li class="hidden-xs"&gt;&lt;a href="#"&gt;&lt;span class="glyphicon glyphicon-search" aria-hidden="true"&gt;&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/nav&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- HEADER MENU : END --&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -307,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -322,6 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,13 +458,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -398,13 +511,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -451,13 +564,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>8686</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>104452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -499,15 +612,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>497025</xdr:colOff>
+      <xdr:colOff>477975</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -530,7 +643,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="447676"/>
+          <a:off x="685800" y="419101"/>
           <a:ext cx="9545775" cy="6534150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -814,7 +927,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -861,13 +974,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -905,13 +1018,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>310</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>12796</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -949,13 +1062,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -996,6 +1109,161 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF4DF20-49A8-E440-709E-A30F4787223A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="904875"/>
+          <a:ext cx="6629400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E584103D-E05B-F6B6-D7E6-9F7BDEAE9C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="266700" y="1304925"/>
+          <a:ext cx="2895600" cy="4848225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>61117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79327035-B473-D236-F7D0-1D0764FA86EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="13944600"/>
+          <a:ext cx="11277600" cy="5738017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1264,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H47"/>
+  <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,10 +1593,10 @@
       <c r="B7" s="4"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="5"/>
     </row>
@@ -1337,7 +1605,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1347,10 +1615,10 @@
       <c r="B9" s="4"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="5"/>
     </row>
@@ -1360,7 +1628,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="5"/>
@@ -1371,7 +1639,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="5"/>
@@ -1381,8 +1649,8 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="11" t="s">
-        <v>16</v>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="5"/>
@@ -1392,10 +1660,10 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="F13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,10 +1671,10 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1414,10 +1682,10 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1425,10 +1693,10 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1437,7 +1705,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="5"/>
@@ -1448,7 +1716,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="5"/>
@@ -1459,7 +1727,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="5"/>
@@ -1469,30 +1737,30 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="9"/>
+      <c r="F20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="5"/>
@@ -1500,10 +1768,10 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="5"/>
@@ -1513,7 +1781,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -1522,83 +1790,85 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1618,7 +1888,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1629,7 +1899,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1649,7 +1919,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1659,47 +1929,78 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1712,28 +2013,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058F9641-4FFE-4744-A4F0-293E8710F5CA}">
-  <dimension ref="A4:R310"/>
+  <dimension ref="A4:T313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="G300" sqref="G300"/>
+    <sheetView topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="M253" sqref="M253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R4" t="s">
+    <row r="4" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R5" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R5" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R6" t="s">
+      <c r="S5" s="9"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R6" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1798,10 +2105,10 @@
       <c r="B234" s="4"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
-      <c r="E234" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F234" s="9"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="G234" s="9"/>
       <c r="H234" s="5"/>
     </row>
@@ -1810,7 +2117,7 @@
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
@@ -1820,11 +2127,11 @@
       <c r="B236" s="4"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
-      <c r="F236" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G236" s="11"/>
+      <c r="E236" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
       <c r="H236" s="5"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -1833,7 +2140,7 @@
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
       <c r="F237" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G237" s="11"/>
       <c r="H237" s="5"/>
@@ -1844,7 +2151,7 @@
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G238" s="11"/>
       <c r="H238" s="5"/>
@@ -1855,7 +2162,7 @@
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
       <c r="F239" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G239" s="11"/>
       <c r="H239" s="5"/>
@@ -1865,345 +2172,378 @@
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
-      <c r="F240" s="11"/>
-      <c r="G240" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F240" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G240" s="11"/>
       <c r="H240" s="5"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="4"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
-      <c r="F241" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H241" s="5"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="4"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
-      <c r="F242" s="13"/>
-      <c r="G242" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F242" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G242" s="11"/>
       <c r="H242" s="5"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="4"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
-      <c r="F243" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243" s="11"/>
+      <c r="F243" s="13"/>
+      <c r="G243" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H243" s="5"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="4"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
       <c r="F244" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G244" s="11"/>
       <c r="H244" s="5"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="4"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
       <c r="F245" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G245" s="11"/>
       <c r="H245" s="5"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="4"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
       <c r="F246" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G246" s="11"/>
       <c r="H246" s="5"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="4"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
-      <c r="F247" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G247" s="9"/>
+      <c r="F247" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G247" s="11"/>
       <c r="H247" s="5"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="4"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
-      <c r="E248" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F248" s="9"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="G248" s="9"/>
       <c r="H248" s="5"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="4"/>
       <c r="C249" s="9"/>
-      <c r="D249" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F249" s="9"/>
       <c r="G249" s="9"/>
       <c r="H249" s="5"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="4"/>
       <c r="C250" s="9"/>
-      <c r="D250" s="9"/>
-      <c r="E250" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D250" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" s="9"/>
       <c r="F250" s="9"/>
       <c r="G250" s="9"/>
       <c r="H250" s="5"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="4"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F251" s="9"/>
       <c r="G251" s="9"/>
       <c r="H251" s="5"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="4"/>
       <c r="C252" s="9"/>
-      <c r="D252" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E252" s="9"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="F252" s="9"/>
       <c r="G252" s="9"/>
       <c r="H252" s="5"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B253" s="6"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="7" t="s">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="4"/>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F253" s="9"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="5"/>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B254" s="4"/>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="5"/>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B255" s="4"/>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" s="9"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="5"/>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B256" s="6"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E253" s="7"/>
-      <c r="F253" s="7"/>
-      <c r="G253" s="7"/>
-      <c r="H253" s="8"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+      <c r="H256" s="8"/>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
-      <c r="M257" s="2"/>
-      <c r="N257" s="2"/>
-      <c r="O257" s="2"/>
-      <c r="P257" s="2"/>
-      <c r="Q257" s="2"/>
-      <c r="R257" s="3"/>
-    </row>
-    <row r="258" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B258" s="6"/>
-      <c r="C258" s="7"/>
-      <c r="D258" s="7"/>
-      <c r="E258" s="7"/>
-      <c r="F258" s="7"/>
-      <c r="G258" s="7"/>
-      <c r="H258" s="7"/>
-      <c r="I258" s="7"/>
-      <c r="J258" s="7"/>
-      <c r="K258" s="7"/>
-      <c r="L258" s="7"/>
-      <c r="M258" s="7"/>
-      <c r="N258" s="7"/>
-      <c r="O258" s="7"/>
-      <c r="P258" s="7"/>
-      <c r="Q258" s="7"/>
-      <c r="R258" s="8"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+      <c r="M260" s="2"/>
+      <c r="N260" s="2"/>
+      <c r="O260" s="2"/>
+      <c r="P260" s="2"/>
+      <c r="Q260" s="2"/>
+      <c r="R260" s="3"/>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B261" s="6"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" s="7"/>
+      <c r="H261" s="7"/>
+      <c r="I261" s="7"/>
+      <c r="J261" s="7"/>
+      <c r="K261" s="7"/>
+      <c r="L261" s="7"/>
+      <c r="M261" s="7"/>
+      <c r="N261" s="7"/>
+      <c r="O261" s="7"/>
+      <c r="P261" s="7"/>
+      <c r="Q261" s="7"/>
+      <c r="R261" s="8"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B293" s="1" t="s">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="3"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B294" s="4" t="s">
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="3"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B297" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C294" s="9"/>
-      <c r="D294" s="9"/>
-      <c r="E294" s="9"/>
-      <c r="F294" s="9"/>
-      <c r="G294" s="9"/>
-      <c r="H294" s="5"/>
-      <c r="I294" t="s">
+      <c r="C297" s="9"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="5"/>
+      <c r="I297" t="s">
         <v>42</v>
       </c>
-      <c r="J294" t="s">
+      <c r="J297" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B295" s="4"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
-      <c r="E295" s="9"/>
-      <c r="F295" s="9"/>
-      <c r="G295" s="9"/>
-      <c r="H295" s="5"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B296" s="4" t="s">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B298" s="4"/>
+      <c r="C298" s="9"/>
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="5"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B299" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9"/>
-      <c r="E296" s="9"/>
-      <c r="F296" s="9"/>
-      <c r="G296" s="9"/>
-      <c r="H296" s="5"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B297" s="6" t="s">
+      <c r="C299" s="9"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="5"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B300" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C297" s="7"/>
-      <c r="D297" s="7"/>
-      <c r="E297" s="7"/>
-      <c r="F297" s="7"/>
-      <c r="G297" s="7"/>
-      <c r="H297" s="8"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="C300" s="7"/>
+      <c r="D300" s="7"/>
+      <c r="E300" s="7"/>
+      <c r="F300" s="7"/>
+      <c r="G300" s="7"/>
+      <c r="H300" s="8"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B300" s="1" t="s">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B303" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C300" s="2"/>
-      <c r="D300" s="3"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B301" s="4" t="s">
+      <c r="C303" s="2"/>
+      <c r="D303" s="3"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B304" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C301" s="9"/>
-      <c r="D301" s="5"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B302" s="6" t="s">
+      <c r="C304" s="9"/>
+      <c r="D304" s="5"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B305" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C302" s="7"/>
-      <c r="D302" s="8"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="C305" s="7"/>
+      <c r="D305" s="8"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B305" s="1" t="s">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
-      <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
-      <c r="I305" s="3"/>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B306" s="4" t="s">
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="3"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B309" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C306" s="9"/>
-      <c r="D306" s="9"/>
-      <c r="E306" s="9"/>
-      <c r="F306" s="9"/>
-      <c r="G306" s="9"/>
-      <c r="H306" s="9"/>
-      <c r="I306" s="5"/>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B307" s="4" t="s">
+      <c r="C309" s="9"/>
+      <c r="D309" s="9"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="9"/>
+      <c r="G309" s="9"/>
+      <c r="H309" s="9"/>
+      <c r="I309" s="5"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B310" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C307" s="9"/>
-      <c r="D307" s="9"/>
-      <c r="E307" s="9"/>
-      <c r="F307" s="9"/>
-      <c r="G307" s="9"/>
-      <c r="H307" s="9"/>
-      <c r="I307" s="5"/>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B308" s="6" t="s">
+      <c r="C310" s="9"/>
+      <c r="D310" s="9"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="9"/>
+      <c r="G310" s="9"/>
+      <c r="H310" s="9"/>
+      <c r="I310" s="5"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B311" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C308" s="7"/>
-      <c r="D308" s="7"/>
-      <c r="E308" s="7"/>
-      <c r="F308" s="7"/>
-      <c r="G308" s="7"/>
-      <c r="H308" s="7"/>
-      <c r="I308" s="8"/>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="C311" s="7"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
+      <c r="G311" s="7"/>
+      <c r="H311" s="7"/>
+      <c r="I311" s="8"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2212,4 +2552,950 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7C3E5-8F54-4420-9424-E4FD985550AD}">
+  <dimension ref="A2:M73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="H26" s="5"/>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="8"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
+++ b/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\3.project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF557E-24C3-4B15-84B7-EC7FB72D81A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322BB781-A223-422D-8A08-67DA24B9A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sass files" sheetId="1" r:id="rId1"/>
     <sheet name="Font" sheetId="2" r:id="rId2"/>
     <sheet name="HTML structure" sheetId="3" r:id="rId3"/>
+    <sheet name="Logo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
   <si>
     <t>構成</t>
   </si>
@@ -297,6 +298,69 @@
   </si>
   <si>
     <t>    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>_header-logo.scss</t>
+  </si>
+  <si>
+    <t>div.header-logo {</t>
+  </si>
+  <si>
+    <t>    margin-top: 10px;</t>
+  </si>
+  <si>
+    <t>    a {</t>
+  </si>
+  <si>
+    <t>        display: block;</t>
+  </si>
+  <si>
+    <t>        img {</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>development\sass\header\_header-logo.scss</t>
+  </si>
+  <si>
+    <t>development\sass\header\_main.scss</t>
+  </si>
+  <si>
+    <t>header {</t>
+  </si>
+  <si>
+    <t>    background-color: $header-color-background;</t>
+  </si>
+  <si>
+    <t>    padding: 4% 0;</t>
+  </si>
+  <si>
+    <t>    @import "header-logo";</t>
+  </si>
+  <si>
+    <t>development\sass\_variable.scss</t>
+  </si>
+  <si>
+    <t>/* ======================== HEADER ======================== */</t>
+  </si>
+  <si>
+    <t>$header-color-background: #71C7C0;</t>
+  </si>
+  <si>
+    <t>development\sass\main.scss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>@import "header/main";</t>
+  </si>
+  <si>
+    <t>Add new file</t>
   </si>
 </sst>
 </file>
@@ -419,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -435,6 +499,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1269,6 +1336,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FAAC221-7E9E-530E-1A90-48179C329980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1838325" y="2657475"/>
+          <a:ext cx="2028825" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>5970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF12C77-E227-96F9-8E1A-BA8DA220DD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="14963776"/>
+          <a:ext cx="11334750" cy="4854194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2558,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C7C3E5-8F54-4420-9424-E4FD985550AD}">
   <dimension ref="A2:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,4 +3667,753 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82551E6-C53B-4E0C-AC99-D099E043FA6B}">
+  <dimension ref="A2:J78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
+++ b/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\3.project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322BB781-A223-422D-8A08-67DA24B9A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB3FA54-B5E0-4C29-B337-DC2443AA7D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sass files" sheetId="1" r:id="rId1"/>
     <sheet name="Font" sheetId="2" r:id="rId2"/>
     <sheet name="HTML structure" sheetId="3" r:id="rId3"/>
     <sheet name="Logo" sheetId="4" r:id="rId4"/>
+    <sheet name="Menu" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="190">
   <si>
     <t>構成</t>
   </si>
@@ -361,6 +362,243 @@
   </si>
   <si>
     <t>Add new file</t>
+  </si>
+  <si>
+    <t>_header-menu.scss</t>
+  </si>
+  <si>
+    <t>development\sass\header\_header-menu.scss</t>
+  </si>
+  <si>
+    <t>_mx_libs.scss</t>
+  </si>
+  <si>
+    <t>_mx_utils.scss</t>
+  </si>
+  <si>
+    <t>is added</t>
+  </si>
+  <si>
+    <t>development\sass\_reset.scss</t>
+  </si>
+  <si>
+    <t>a {</t>
+  </si>
+  <si>
+    <t>    text-decoration: none;</t>
+  </si>
+  <si>
+    <t>    &amp;:hover {</t>
+  </si>
+  <si>
+    <t>        text-decoration: none;</t>
+  </si>
+  <si>
+    <t>ul {</t>
+  </si>
+  <si>
+    <t>    padding: 0px;</t>
+  </si>
+  <si>
+    <t>    margin: 0px;</t>
+  </si>
+  <si>
+    <t>/* ======================== COLORS ======================== */</t>
+  </si>
+  <si>
+    <t>$color-white    : #ffffff;</t>
+  </si>
+  <si>
+    <t>development\sass\mixins\_mx_utils.scss</t>
+  </si>
+  <si>
+    <t>/* ==================== BORDER RADIUS ==================== */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* Ref: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    http://www.w3schools.com/css/css3_borders.asp </t>
+  </si>
+  <si>
+    <t>    http://border-radius.com/</t>
+  </si>
+  <si>
+    <t>    border-radius: tl tr br bl:</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>@mixin setBorderRadius($value){</t>
+  </si>
+  <si>
+    <t>    border-radius: $value;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -webkit-border-radius: $value; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -moz-border-radius: $value;       </t>
+  </si>
+  <si>
+    <t>   -o-border-radius: $value;          // for Opera and Iphone5 Mobile**</t>
+  </si>
+  <si>
+    <t>/* ==================== BOX SHADOW ==================== */</t>
+  </si>
+  <si>
+    <t>    http://www.cssmatic.com/box-shadow</t>
+  </si>
+  <si>
+    <t>@mixin setBoxShadowBottom($size, $color){</t>
+  </si>
+  <si>
+    <t>    box-shadow:  inset 0px $size 0px 0px $color;</t>
+  </si>
+  <si>
+    <t>    -webkit-box-shadow: inset 0px $size 0px 0px $color;</t>
+  </si>
+  <si>
+    <t>    -moz-box-shadow: inset 0px $size 0px 0px $color;</t>
+  </si>
+  <si>
+    <t>    -o-box-shadow: inset 0px $size 0px 0px $color;</t>
+  </si>
+  <si>
+    <t>/* ==================== Set Font ==================== */</t>
+  </si>
+  <si>
+    <t>@mixin setFont($fontSize, $color, $fontWeight: null, $fontFamily: null){</t>
+  </si>
+  <si>
+    <t>    color: $color;</t>
+  </si>
+  <si>
+    <t>    font-size:$fontSize;</t>
+  </si>
+  <si>
+    <t>    @if $fontWeight != null {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        font-weight: $fontWeight;   </t>
+  </si>
+  <si>
+    <t>    @if $fontFamily != null {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        font-family: $fontFamily;   </t>
+  </si>
+  <si>
+    <t>development\sass\mixins\_main.scss</t>
+  </si>
+  <si>
+    <t>@import "mx_libs";</t>
+  </si>
+  <si>
+    <t>@import "mx_utils";</t>
+  </si>
+  <si>
+    <t>nav.header-menu {</t>
+  </si>
+  <si>
+    <t>    %menu-active-or-hover {</t>
+  </si>
+  <si>
+    <t>        background: #62A29E;</t>
+  </si>
+  <si>
+    <t>        @include setBorderRadius(5px);</t>
+  </si>
+  <si>
+    <t>        @include setBoxShadowBottom(-4px, #47817E);</t>
+  </si>
+  <si>
+    <t>    ul li {</t>
+  </si>
+  <si>
+    <t>        display: inline-block;</t>
+  </si>
+  <si>
+    <t>        a {</t>
+  </si>
+  <si>
+    <t>            text-transform: uppercase;</t>
+  </si>
+  <si>
+    <t>            display: block;</t>
+  </si>
+  <si>
+    <t>    ul.menu {</t>
+  </si>
+  <si>
+    <t>        &gt; li {</t>
+  </si>
+  <si>
+    <t>            &gt; a {</t>
+  </si>
+  <si>
+    <t>                @include setFont(16px, $color-white, bold );</t>
+  </si>
+  <si>
+    <t>                padding: 10px 24px;</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>            &amp;.activate, &amp;:hover {</t>
+  </si>
+  <si>
+    <t>                &gt; a {</t>
+  </si>
+  <si>
+    <t>                    @extend %menu-active-or-hover;</t>
+  </si>
+  <si>
+    <t>                }</t>
+  </si>
+  <si>
+    <t>    // Menu Level 2</t>
+  </si>
+  <si>
+    <t>    ul.sub-menu, ul.sub-sub-menu {</t>
+  </si>
+  <si>
+    <t>        display: none;</t>
+  </si>
+  <si>
+    <t>    @import "header-menu";</t>
+  </si>
+  <si>
+    <t>Các thẻ li của menu nằm trên 1 dòng</t>
+  </si>
+  <si>
+    <t>Các menu là chữ in hoa và đề phòng trường hợp lấy dữ liệu từ database ra ko phải chữ in hoa thì mình để css uppercase</t>
+  </si>
+  <si>
+    <t>Các mixins download về thì sẽ để trong đây</t>
+  </si>
+  <si>
+    <t>Các mixins tự viết</t>
+  </si>
+  <si>
+    <t>Giành cho trình duyệt Firefox</t>
+  </si>
+  <si>
+    <t>Giành cho trình duyệt Chrome</t>
+  </si>
+  <si>
+    <t>Opera and Iphone Mobile</t>
+  </si>
+  <si>
+    <t>https://border-radius.com/</t>
+  </si>
+  <si>
+    <t>inset: Optional. Changes the shadow from an outer shadow (outset) to an inner shadow</t>
+  </si>
+  <si>
+    <t>https://html-css-js.com/css/generator/box-shadow/</t>
   </si>
 </sst>
 </file>
@@ -483,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -502,6 +740,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,6 +1682,346 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>399057</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>161801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7224E2E5-6DFB-4F79-56D1-CBFEC07CAFF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="22412325"/>
+          <a:ext cx="7942857" cy="990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB372E9-93D6-E450-C8CE-1E7A25BA25E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7105650" y="23155275"/>
+          <a:ext cx="4152900" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>389727</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1114D2-5B36-8EAD-3C0A-ED0E8198DFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687175" y="11515725"/>
+          <a:ext cx="6380952" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2F1344-1669-F42B-8D6B-8F335B08B022}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7953375" y="11439525"/>
+          <a:ext cx="3657600" cy="3409950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>27289</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>75654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544B4327-1E00-2A72-96AE-6B2B8E74374A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687175" y="15897225"/>
+          <a:ext cx="10285714" cy="4371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F495C5A-B994-4130-6B68-9064E5F4C20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5543550" y="15811500"/>
+          <a:ext cx="6057900" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>27624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406E5F27-1F76-543D-2EB6-DB6BFCE639F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="30356176"/>
+          <a:ext cx="11391900" cy="3389948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3673,8 +4257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82551E6-C53B-4E0C-AC99-D099E043FA6B}">
   <dimension ref="A2:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,4 +5000,1570 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515AD982-99F3-476A-BC88-8AACB7C5486C}">
+  <dimension ref="A2:T159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="15"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="18"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="18"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="5"/>
+      <c r="T60" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="15"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="5"/>
+      <c r="O77" s="23"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="5"/>
+      <c r="J79" t="s">
+        <v>42</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L79" s="2"/>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="5"/>
+      <c r="J80" t="s">
+        <v>42</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="5"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="5"/>
+      <c r="J81" t="s">
+        <v>42</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="L81" s="7"/>
+      <c r="M81" s="8"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="15"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="5"/>
+      <c r="T83" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="15"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="5"/>
+      <c r="J90" t="s">
+        <v>42</v>
+      </c>
+      <c r="K90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="15"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B96" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="15"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="15"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="22"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="18"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="18"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="18"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="18"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="15"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="18"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="18"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="18"/>
+      <c r="H123" t="s">
+        <v>42</v>
+      </c>
+      <c r="I123" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="18"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="18"/>
+      <c r="H125" t="s">
+        <v>42</v>
+      </c>
+      <c r="I125" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="18"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="18"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="18"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="15"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="18"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="18"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="18"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="18"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="18"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="18"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="18"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="15"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="18"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="18"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="18"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="18"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="18"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="18"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="18"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="18"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="15"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="18"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="18"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="18"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="18"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="18"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="20"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="8"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
+++ b/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\3.project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB3FA54-B5E0-4C29-B337-DC2443AA7D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0A6230-3667-42FD-8D47-4459A0C790B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sass files" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="HTML structure" sheetId="3" r:id="rId3"/>
     <sheet name="Logo" sheetId="4" r:id="rId4"/>
     <sheet name="Menu" sheetId="5" r:id="rId5"/>
+    <sheet name="Sub Menu" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="211">
   <si>
     <t>構成</t>
   </si>
@@ -599,6 +600,88 @@
   </si>
   <si>
     <t>https://html-css-js.com/css/generator/box-shadow/</t>
+  </si>
+  <si>
+    <t>        list-style: none;</t>
+  </si>
+  <si>
+    <t>        position: relative;</t>
+  </si>
+  <si>
+    <t>    // Menu Level 1</t>
+  </si>
+  <si>
+    <t>            &amp;:hover {</t>
+  </si>
+  <si>
+    <t>                ul.sub-menu {</t>
+  </si>
+  <si>
+    <t>                    display: block;</t>
+  </si>
+  <si>
+    <t>        position: absolute;</t>
+  </si>
+  <si>
+    <t>        top: 42px;</t>
+  </si>
+  <si>
+    <t>        left: 0px;</t>
+  </si>
+  <si>
+    <t>            width: 155px;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @include setFont(13px, $color-white); </t>
+  </si>
+  <si>
+    <t>                border-left: 3px solid #C03C35;</t>
+  </si>
+  <si>
+    <t>                background: #E2534B;</t>
+  </si>
+  <si>
+    <t>                padding: 10px 20px;</t>
+  </si>
+  <si>
+    <t>Để hiển thị menu con thì thẻ li ở phía ngoài để position là relative, ul bên trong để position là absolute sau đó định nghĩa top và left cho ul đó</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Chỉ có thẻ li là con của ul.menu thì mới chịu ảnh hưởng, còn các thẻ li nằm sâu phía bên trong(cháu, chắt…) thì ko chịu ảnh ưởng</t>
+    </r>
+  </si>
+  <si>
+    <t>    %sub-menu-active-or-hover {</t>
+  </si>
+  <si>
+    <t>        background: #f0f0f0;</t>
+  </si>
+  <si>
+    <t>        border-left: 3px solid #62A29E;</t>
+  </si>
+  <si>
+    <t>        color: #797979;</t>
+  </si>
+  <si>
+    <t>                    @extend %sub-menu-active-or-hover;</t>
   </si>
 </sst>
 </file>
@@ -721,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -746,6 +829,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2022,6 +2107,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF698C17-DBC6-6745-48F5-C2ADAB3D499B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1962150" y="10106025"/>
+          <a:ext cx="2905125" cy="6172200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94D011D-12AC-F3AA-28B3-49F8E2395BDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="10020300"/>
+          <a:ext cx="2867025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>550028</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC44BD1-AA8C-706B-FDE2-BEDBB4850C8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609599" y="20383500"/>
+          <a:ext cx="11522829" cy="3428999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5006,8 +5246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515AD982-99F3-476A-BC88-8AACB7C5486C}">
   <dimension ref="A2:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6294,7 +6534,7 @@
       <c r="F128" s="10"/>
       <c r="G128" s="18"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="15"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
@@ -6302,7 +6542,7 @@
       <c r="F129" s="10"/>
       <c r="G129" s="18"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="s">
         <v>166</v>
       </c>
@@ -6312,7 +6552,7 @@
       <c r="F130" s="10"/>
       <c r="G130" s="18"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="s">
         <v>167</v>
       </c>
@@ -6321,8 +6561,14 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="18"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>42</v>
+      </c>
+      <c r="I131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="15" t="s">
         <v>168</v>
       </c>
@@ -6332,7 +6578,7 @@
       <c r="F132" s="10"/>
       <c r="G132" s="18"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="15" t="s">
         <v>169</v>
       </c>
@@ -6342,7 +6588,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="18"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="15" t="s">
         <v>170</v>
       </c>
@@ -6352,7 +6598,7 @@
       <c r="F134" s="10"/>
       <c r="G134" s="18"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="15" t="s">
         <v>171</v>
       </c>
@@ -6362,7 +6608,7 @@
       <c r="F135" s="10"/>
       <c r="G135" s="18"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="15"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
@@ -6370,7 +6616,7 @@
       <c r="F136" s="10"/>
       <c r="G136" s="18"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="15" t="s">
         <v>172</v>
       </c>
@@ -6380,7 +6626,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="18"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="15" t="s">
         <v>173</v>
       </c>
@@ -6390,7 +6636,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="18"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="15" t="s">
         <v>174</v>
       </c>
@@ -6400,7 +6646,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="18"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="15" t="s">
         <v>175</v>
       </c>
@@ -6410,7 +6656,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="18"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="15" t="s">
         <v>171</v>
       </c>
@@ -6420,7 +6666,7 @@
       <c r="F141" s="10"/>
       <c r="G141" s="18"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="15" t="s">
         <v>96</v>
       </c>
@@ -6430,7 +6676,7 @@
       <c r="F142" s="10"/>
       <c r="G142" s="18"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="15" t="s">
         <v>97</v>
       </c>
@@ -6440,7 +6686,7 @@
       <c r="F143" s="10"/>
       <c r="G143" s="18"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="15"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
@@ -6566,4 +6812,1065 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD823634-C45B-45EC-8B3B-228225A9AB1E}">
+  <dimension ref="A2:I107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="5"/>
+      <c r="I53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="24"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="24"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="24"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="15"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
+++ b/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\3.project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0A6230-3667-42FD-8D47-4459A0C790B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8D08F2-798B-437A-B34B-B1D5DBAEF1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sass files" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Logo" sheetId="4" r:id="rId4"/>
     <sheet name="Menu" sheetId="5" r:id="rId5"/>
     <sheet name="Sub Menu" sheetId="6" r:id="rId6"/>
+    <sheet name="Sub sub Menu" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="217">
   <si>
     <t>構成</t>
   </si>
@@ -682,6 +683,24 @@
   </si>
   <si>
     <t>                    @extend %sub-menu-active-or-hover;</t>
+  </si>
+  <si>
+    <t>        z-index: 100;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &gt; ul.sub-sub-menu { </t>
+  </si>
+  <si>
+    <t>    // Menu Level 3</t>
+  </si>
+  <si>
+    <t>    ul.sub-sub-menu {</t>
+  </si>
+  <si>
+    <t>        top: 0px;</t>
+  </si>
+  <si>
+    <t>        left: 155px;</t>
   </si>
 </sst>
 </file>
@@ -2262,6 +2281,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>59031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D5BE55-FD61-113D-DC0D-877F4FCAF095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676276" y="22783800"/>
+          <a:ext cx="11315700" cy="4135731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5246,7 +5314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515AD982-99F3-476A-BC88-8AACB7C5486C}">
   <dimension ref="A2:T159"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
@@ -6818,8 +6886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD823634-C45B-45EC-8B3B-228225A9AB1E}">
   <dimension ref="A2:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7873,4 +7941,1169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B302FF-474E-4BAC-B6A1-6058A3E19AE8}">
+  <dimension ref="A2:H119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="15"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
+++ b/me/3.project/2.Xay-dung-giao-dien-Header.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\3.project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8D08F2-798B-437A-B34B-B1D5DBAEF1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A37898-F575-4165-A3FB-8870DD9413AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sass files" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Menu" sheetId="5" r:id="rId5"/>
     <sheet name="Sub Menu" sheetId="6" r:id="rId6"/>
     <sheet name="Sub sub Menu" sheetId="7" r:id="rId7"/>
+    <sheet name="Responsive" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="459">
   <si>
     <t>構成</t>
   </si>
@@ -701,6 +702,732 @@
   </si>
   <si>
     <t>        left: 155px;</t>
+  </si>
+  <si>
+    <t>_mixin.scss</t>
+  </si>
+  <si>
+    <t>_size_extra_small.scss</t>
+  </si>
+  <si>
+    <t>_size_large.scss</t>
+  </si>
+  <si>
+    <t>_size_medium.scss</t>
+  </si>
+  <si>
+    <t>_size_mobile.scss</t>
+  </si>
+  <si>
+    <t>_size_small.scss</t>
+  </si>
+  <si>
+    <t>development\sass\devices\_main.scss</t>
+  </si>
+  <si>
+    <t>$device_size_mobile     : 425px;</t>
+  </si>
+  <si>
+    <t>$device_size_small      : 768px;</t>
+  </si>
+  <si>
+    <t>$device_size_medium     : 992px;</t>
+  </si>
+  <si>
+    <t>$device_size_large      : 1200px;</t>
+  </si>
+  <si>
+    <t>@import "mixin";</t>
+  </si>
+  <si>
+    <t>/*  ================================================================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LARGE DEVICES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Large Desktops 1200px and Up (&gt;1200) </t>
+  </si>
+  <si>
+    <t>    ================================================================================ */</t>
+  </si>
+  <si>
+    <t>@import "size_large";</t>
+  </si>
+  <si>
+    <t>    MEDIUM DEVICES</t>
+  </si>
+  <si>
+    <t>    Desktops 992px and Up (&gt;992px &amp; &lt;1200px)</t>
+  </si>
+  <si>
+    <t>@import "size_medium";</t>
+  </si>
+  <si>
+    <t>    SMALL DEVICES</t>
+  </si>
+  <si>
+    <t>    Tablets 768px and Up (&gt;768px &amp; &lt;992px)</t>
+  </si>
+  <si>
+    <t>@import "size_small";</t>
+  </si>
+  <si>
+    <t>    EXTRA SMALL</t>
+  </si>
+  <si>
+    <t>    (&gt;425px &amp; &lt;768px)</t>
+  </si>
+  <si>
+    <t>@import "size_extra_small";</t>
+  </si>
+  <si>
+    <t>    MOBILE SIZE</t>
+  </si>
+  <si>
+    <t>    Phones Less than 425px</t>
+  </si>
+  <si>
+    <t>    (&lt;425px)</t>
+  </si>
+  <si>
+    <t>@import "size_mobile";</t>
+  </si>
+  <si>
+    <t>development\sass\devices\_mixin.scss</t>
+  </si>
+  <si>
+    <t>// Navigation Padding</t>
+  </si>
+  <si>
+    <t>@mixin setHeaderMenuPadding($padding){</t>
+  </si>
+  <si>
+    <t>    header nav.header-menu ul.menu &gt; li &gt; a {</t>
+  </si>
+  <si>
+    <t>        padding: $padding;</t>
+  </si>
+  <si>
+    <t>//  Center Header</t>
+  </si>
+  <si>
+    <t>@mixin setCenterHeader() {</t>
+  </si>
+  <si>
+    <t>    header {</t>
+  </si>
+  <si>
+    <t>        text-align: center;</t>
+  </si>
+  <si>
+    <t>        div.header-logo {</t>
+  </si>
+  <si>
+    <t>            float: none !important;</t>
+  </si>
+  <si>
+    <t>            margin-bottom: 10px;</t>
+  </si>
+  <si>
+    <t>        nav.header-menu {</t>
+  </si>
+  <si>
+    <t>// Navigation On Mobile</t>
+  </si>
+  <si>
+    <t>@mixin setNavigationOnMobile() {</t>
+  </si>
+  <si>
+    <t>        div.header-logo, nav.header-menu {</t>
+  </si>
+  <si>
+    <t>            ul.menu {</t>
+  </si>
+  <si>
+    <t>                display: none;</t>
+  </si>
+  <si>
+    <t>                &gt; li{</t>
+  </si>
+  <si>
+    <t>                    width: 100%;</t>
+  </si>
+  <si>
+    <t>                    a{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        background: #ffffff !important; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        color: #797979 !important; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        border-top:1px solid #e0e0e0 !important; </t>
+  </si>
+  <si>
+    <t>                    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
+  </si>
+  <si>
+    <t>                    &amp;:hover a, &amp;.activate a {</t>
+  </si>
+  <si>
+    <t>                        background: #f0f0f0 !important;</t>
+  </si>
+  <si>
+    <t>                        @include setBoxShadowBottom(0px, #47817E !important);</t>
+  </si>
+  <si>
+    <t>                        @include setBorderRadius(0px !important);</t>
+  </si>
+  <si>
+    <t>                    ul {</t>
+  </si>
+  <si>
+    <t>                        display:none;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }   </t>
+  </si>
+  <si>
+    <t>    a.mobile-menu {</t>
+  </si>
+  <si>
+    <t>        display: block !important;</t>
+  </si>
+  <si>
+    <t>        margin-top: 20px;</t>
+  </si>
+  <si>
+    <t>development\sass\devices\_size_extra_small.scss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@media screen </t>
+  </si>
+  <si>
+    <t>    and (min-width: $device_size_mobile)</t>
+  </si>
+  <si>
+    <t>    and (max-width: $device_size_small) {</t>
+  </si>
+  <si>
+    <t>        @include setHeaderMenuPadding(8px 18px);</t>
+  </si>
+  <si>
+    <t>        @include setCenterHeader();</t>
+  </si>
+  <si>
+    <t>development\sass\devices\_size_large.scss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    and (min-width: $device_size_large) </t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    // CSS</t>
+  </si>
+  <si>
+    <t>development\sass\devices\_size_medium.scss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    and (min-width: $device_size_medium ) </t>
+  </si>
+  <si>
+    <t>    and (max-width: $device_size_large)</t>
+  </si>
+  <si>
+    <t>    @include setHeaderMenuPadding(10px 18px);</t>
+  </si>
+  <si>
+    <t>development\sass\devices\_size_mobile.scss</t>
+  </si>
+  <si>
+    <t>    and (max-width: $device_size_mobile) {</t>
+  </si>
+  <si>
+    <t>    @include setNavigationOnMobile();</t>
+  </si>
+  <si>
+    <t>development\sass\devices\_size_small.scss</t>
+  </si>
+  <si>
+    <t>    and (min-width: $device_size_small)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    and (max-width: $device_size_medium) </t>
+  </si>
+  <si>
+    <t>    @include setHeaderMenuPadding(8px 14px);</t>
+  </si>
+  <si>
+    <t>    @include setCenterHeader();</t>
+  </si>
+  <si>
+    <t>a.mobile-menu{</t>
+  </si>
+  <si>
+    <t>    display: none;</t>
+  </si>
+  <si>
+    <t>    width: 100%;</t>
+  </si>
+  <si>
+    <t>    padding: 12px;</t>
+  </si>
+  <si>
+    <t>    background: #528B86;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @include setFont(16px, $color-white); </t>
+  </si>
+  <si>
+    <t>    text-transform: uppercase;</t>
+  </si>
+  <si>
+    <t>    &amp;:hover{</t>
+  </si>
+  <si>
+    <t>        background:#447F7A;</t>
+  </si>
+  <si>
+    <t>/* ======================== DEVICES ======================== */</t>
+  </si>
+  <si>
+    <t>@import "devices/main";</t>
+  </si>
+  <si>
+    <t>development\index.html</t>
+  </si>
+  <si>
+    <t>&lt;!doctype html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;head&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;meta charset="utf-8"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- The above 3 meta tags *must* come first in the head; any other head content must come *after* these tags --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;title&gt;Bootstrap 101 Template&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- Bootstrap --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;link rel="stylesheet" href="./css/bootstrap.min.css"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;link rel="stylesheet" href="./css/font-awesome.min.css"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;link rel="stylesheet" href="./css/main.css"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- HTML5 shim and Respond.js for IE8 support of HTML5 elements and media queries --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- WARNING: Respond.js doesn't work if you view the page via file:// --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!--[if lt IE 9]&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="https://cdn.jsdelivr.net/npm/html5shiv@3.7.3/dist/html5shiv.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="https://cdn.jsdelivr.net/npm/respond.js@1.4.2/dest/respond.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;![endif]--&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;body&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- HEADER : START --&gt;</t>
+  </si>
+  <si>
+    <t>        include "./html-elements/header.html"</t>
+  </si>
+  <si>
+    <t>        &lt;!-- HEADER : END --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- jQuery (necessary for Bootstrap's JavaScript plugins) --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./js/jquery-1.12.4.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;!-- Include all compiled plugins (below), or include individual files as needed --&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./js/bootstrap.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./js/menu.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>development\html-elements\header.html</t>
+  </si>
+  <si>
+    <t>        &lt;a id="touch-menu" class="mobile-menu" href="#"&gt;Menu&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>development\js\menu.js</t>
+  </si>
+  <si>
+    <t>$(document).ready(function() {</t>
+  </si>
+  <si>
+    <t>    var touch   = $('a#touch-menu');</t>
+  </si>
+  <si>
+    <t>    var menu    = $('ul.menu');</t>
+  </si>
+  <si>
+    <t>    $(touch).on('click', function(e) {</t>
+  </si>
+  <si>
+    <t>        e.preventDefault();</t>
+  </si>
+  <si>
+    <t>        menu.slideToggle();</t>
+  </si>
+  <si>
+    <t>    });</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>module.exports = function(grunt) {</t>
+  </si>
+  <si>
+    <t>    // 01 Config</t>
+  </si>
+  <si>
+    <t>    grunt.initConfig({</t>
+  </si>
+  <si>
+    <t>        pkg: grunt.file.readJSON('package.json'),</t>
+  </si>
+  <si>
+    <t>        dirs: {</t>
+  </si>
+  <si>
+    <t>            inputSCSS   : 'development/sass',</t>
+  </si>
+  <si>
+    <t>            inputJS     : 'development/js',</t>
+  </si>
+  <si>
+    <t>            inputHTMLELements   : 'development/html-elements',</t>
+  </si>
+  <si>
+    <t>            outputCSS   : 'production/css',</t>
+  </si>
+  <si>
+    <t>            outputJS    : 'production/js',</t>
+  </si>
+  <si>
+    <t>        },</t>
+  </si>
+  <si>
+    <t>        // CSSMin</t>
+  </si>
+  <si>
+    <t>        cssmin: {</t>
+  </si>
+  <si>
+    <t>            options: {</t>
+  </si>
+  <si>
+    <t>            },</t>
+  </si>
+  <si>
+    <t>            target: {</t>
+  </si>
+  <si>
+    <t>                files: [{</t>
+  </si>
+  <si>
+    <t>                }]</t>
+  </si>
+  <si>
+    <t>        // Uglify</t>
+  </si>
+  <si>
+    <t>        uglify: {</t>
+  </si>
+  <si>
+    <t>                beautify: false,</t>
+  </si>
+  <si>
+    <t>                compress: {</t>
+  </si>
+  <si>
+    <t>                    drop_console: true</t>
+  </si>
+  <si>
+    <t>            my_target: {</t>
+  </si>
+  <si>
+    <t>                files: {</t>
+  </si>
+  <si>
+    <t>                    '&lt;%= dirs.outputJS %&gt;/menu.js': ['&lt;%= dirs.inputJS %&gt;/menu.js']</t>
+  </si>
+  <si>
+    <t>        // SASS</t>
+  </si>
+  <si>
+    <t>        sass: {</t>
+  </si>
+  <si>
+    <t>            dist: {</t>
+  </si>
+  <si>
+    <t>                options: {</t>
+  </si>
+  <si>
+    <t>                    sourcemap: 'none',</t>
+  </si>
+  <si>
+    <t>                    style: 'expanded',</t>
+  </si>
+  <si>
+    <t>                },</t>
+  </si>
+  <si>
+    <t>                    '&lt;%= dirs.outputCSS %&gt;/main.css': '&lt;%= dirs.inputSCSS %&gt;/main.scss'</t>
+  </si>
+  <si>
+    <t>        // WATCH</t>
+  </si>
+  <si>
+    <t>        watch: {</t>
+  </si>
+  <si>
+    <t>            scripts: {</t>
+  </si>
+  <si>
+    <t>                files: [</t>
+  </si>
+  <si>
+    <t>                    '&lt;%= dirs.inputSCSS %&gt;/*.scss',             // development/sass/*.scss</t>
+  </si>
+  <si>
+    <t>                    '&lt;%= dirs.inputSCSS %&gt;/*/*.scss',           // development/sass/*/*.scss</t>
+  </si>
+  <si>
+    <t>                    '&lt;%= dirs.inputJS %&gt;/*.js',</t>
+  </si>
+  <si>
+    <t>                    'development/index.html',</t>
+  </si>
+  <si>
+    <t>                    '&lt;%= dirs.inputHTMLELements %&gt;/*.html',     // development/html-elements/*.html</t>
+  </si>
+  <si>
+    <t>                ],</t>
+  </si>
+  <si>
+    <t>                tasks: [</t>
+  </si>
+  <si>
+    <t>                    'sass',</t>
+  </si>
+  <si>
+    <t>                    'includes'</t>
+  </si>
+  <si>
+    <t>                    spawn: false,</t>
+  </si>
+  <si>
+    <t>                    livereload: true</t>
+  </si>
+  <si>
+    <t>        // CONNECT</t>
+  </si>
+  <si>
+    <t>        connect: {</t>
+  </si>
+  <si>
+    <t>            server: {</t>
+  </si>
+  <si>
+    <t>                    options: {</t>
+  </si>
+  <si>
+    <t>                        hostname: 'localhost',</t>
+  </si>
+  <si>
+    <t>                        port: 3069,</t>
+  </si>
+  <si>
+    <t>                        base: 'production/',</t>
+  </si>
+  <si>
+    <t>                        livereload: true</t>
+  </si>
+  <si>
+    <t>        // INCLUDES</t>
+  </si>
+  <si>
+    <t>        includes: {</t>
+  </si>
+  <si>
+    <t>            files: {</t>
+  </si>
+  <si>
+    <t>                src: [</t>
+  </si>
+  <si>
+    <t>                    'development/index.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ], // Source files </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dest: 'production/', // Destination directory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                flatten: true, </t>
+  </si>
+  <si>
+    <t>                cwd: '.',</t>
+  </si>
+  <si>
+    <t>                    silent: true,</t>
+  </si>
+  <si>
+    <t>                    banner: ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>    // 02 Load plugin</t>
+  </si>
+  <si>
+    <t>    grunt.loadNpmTasks('grunt-contrib-cssmin');</t>
+  </si>
+  <si>
+    <t>    grunt.loadNpmTasks('grunt-contrib-uglify');</t>
+  </si>
+  <si>
+    <t>    grunt.loadNpmTasks('grunt-contrib-sass');</t>
+  </si>
+  <si>
+    <t>    grunt.loadNpmTasks('grunt-contrib-watch');</t>
+  </si>
+  <si>
+    <t>    grunt.loadNpmTasks('grunt-contrib-connect');</t>
+  </si>
+  <si>
+    <t>    grunt.loadNpmTasks('grunt-includes');</t>
+  </si>
+  <si>
+    <t>    // 03 Register task</t>
+  </si>
+  <si>
+    <t>    grunt.registerTask('default', 'Log some stuff.', function() {</t>
+  </si>
+  <si>
+    <t>        grunt.log.write('Logging some stuff...').ok();</t>
+  </si>
+  <si>
+    <t>    // Task Developer</t>
+  </si>
+  <si>
+    <t>    grunt.registerTask('dev', [</t>
+  </si>
+  <si>
+    <t>        'includes',</t>
+  </si>
+  <si>
+    <t>        'sass',</t>
+  </si>
+  <si>
+    <t>        'uglify',</t>
+  </si>
+  <si>
+    <t>        'connect',</t>
+  </si>
+  <si>
+    <t>        'watch',</t>
+  </si>
+  <si>
+    <t>    ]);</t>
+  </si>
+  <si>
+    <t>    // Task Publish Project</t>
+  </si>
+  <si>
+    <t>    grunt.registerTask('publish', [</t>
+  </si>
+  <si>
+    <t>        'cssmin',</t>
+  </si>
+  <si>
+    <t>        'uglify'</t>
+  </si>
+  <si>
+    <t>  };</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>&gt; 1200px</t>
+  </si>
+  <si>
+    <t>992px~1200px</t>
+  </si>
+  <si>
+    <t>768px~992px</t>
+  </si>
+  <si>
+    <t>425px~768px</t>
+  </si>
+  <si>
+    <t>Nhỏ hơn 425px</t>
+  </si>
+  <si>
+    <t>Click Menu</t>
+  </si>
+  <si>
+    <t>Xóa đi phần box shadow(0px)</t>
+  </si>
+  <si>
+    <t>Xóa đi phần Border Radius(0px)</t>
   </si>
 </sst>
 </file>
@@ -723,12 +1450,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -823,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -850,6 +1583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2330,6 +3064,1368 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>558</xdr:row>
+      <xdr:rowOff>137149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1133A0F-319A-F129-6EA3-7A8124924D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="100707825"/>
+          <a:ext cx="11258550" cy="5728324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>593</xdr:row>
+      <xdr:rowOff>5942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99577B72-0765-85D2-3F05-2552E21C478D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647701" y="107337226"/>
+          <a:ext cx="11429999" cy="5635216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>559</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Down 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A59EF06-B28B-B090-493F-FB54837C1CC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="106556175"/>
+          <a:ext cx="257175" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>46353</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB28DE8-86C5-55E8-3DD6-AA7B05295EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="6924675"/>
+          <a:ext cx="10171428" cy="3542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45966BE1-D6AE-FF5F-AA11-0CE90CF8C568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4552950" y="9372600"/>
+          <a:ext cx="8991600" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>625</xdr:row>
+      <xdr:rowOff>188025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8818BEE8-44AC-42E1-C8AD-4BB4EBA606EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="113576101"/>
+          <a:ext cx="11382375" cy="5674424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>619</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CA1253-39C1-024A-6312-865859B5AAF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="52778025"/>
+          <a:ext cx="4743450" cy="65208150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>629</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>657</xdr:row>
+      <xdr:rowOff>150667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751FA86F-5938-34FB-4B4A-AFBBA11F76E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="119862601"/>
+          <a:ext cx="10782300" cy="5446566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>654</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F62DB9-36F0-8B12-7C19-0EAE9C7276C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952750" y="43424475"/>
+          <a:ext cx="3324225" cy="81276825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>660</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>689</xdr:row>
+      <xdr:rowOff>74364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693EB653-DB18-0F37-48E3-D8BA154BB05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742951" y="125834775"/>
+          <a:ext cx="11296650" cy="5494089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>684</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F1A824-63CB-5414-4EB0-2F11E9E78FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="46272450"/>
+          <a:ext cx="3895725" cy="84162900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>668</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="Straight Arrow Connector 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD64DD8-57CD-556B-A4E1-C61BC714C3B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="46462950"/>
+          <a:ext cx="4419600" cy="80933925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="Straight Arrow Connector 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E53792E-91FE-08AF-5D92-513657BA8632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="28536900"/>
+          <a:ext cx="9525" cy="17802225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="174" name="Straight Arrow Connector 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F543519-7EBB-3382-1186-623CB3B70648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="27231975"/>
+          <a:ext cx="438150" cy="16097250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>692</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>139086</xdr:colOff>
+      <xdr:row>721</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="Picture 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7637E987-FA60-B84D-7539-A59459E10539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="131968875"/>
+          <a:ext cx="11045211" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>715</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="Straight Arrow Connector 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA6729B-30FB-49F1-94E2-8845D6B80703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="40347900"/>
+          <a:ext cx="3324225" cy="95926275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="Straight Arrow Connector 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B276608-5010-A636-DAD5-FFF727D3CE48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="28565475"/>
+          <a:ext cx="114300" cy="11896725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>724</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>754</xdr:row>
+      <xdr:rowOff>170040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="Picture 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CACA98-1786-6CA6-6B9B-8322C0839298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="138045826"/>
+          <a:ext cx="11363325" cy="5761214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>734</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="Straight Arrow Connector 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B01509-7532-D412-5F9D-64736251EB90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="10458450"/>
+          <a:ext cx="1171575" cy="129444750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>736</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>755</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="Straight Arrow Connector 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9602911B-C33E-36F0-4ACB-CEA66279EBB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="581025" y="140227050"/>
+          <a:ext cx="4552950" cy="3781425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>757</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>787</xdr:row>
+      <xdr:rowOff>75527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="260" name="Picture 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2D4C82-54E9-6621-4DAC-0D3F8649B86A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="144322800"/>
+          <a:ext cx="11220449" cy="5676227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="Straight Arrow Connector 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4401ACAF-B833-CAB9-7C13-B63AABB5B5A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="16163925"/>
+          <a:ext cx="1381125" cy="65236725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="286" name="Straight Arrow Connector 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33075AAE-D17D-253F-B5C2-7C3675A64B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="79790925"/>
+          <a:ext cx="47625" cy="18030825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="296" name="Straight Arrow Connector 295">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68510945-C6E8-1E29-BDBA-BA7DA14EE209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2000250" y="81495900"/>
+          <a:ext cx="1438275" cy="4514850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>756</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="299" name="Straight Arrow Connector 298">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7331B57-CC11-6102-0C0E-7B7611E84C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="352425" y="74094975"/>
+          <a:ext cx="1543050" cy="69932550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="324" name="Straight Arrow Connector 323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2007F8-0194-7C00-1490-CD34E132B9FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="819150" y="10420350"/>
+          <a:ext cx="3086100" cy="51949350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="343" name="Straight Arrow Connector 342">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DA8BCF-6E90-268F-23B5-1927C5781742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="17497425"/>
+          <a:ext cx="38100" cy="15544800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7947,8 +10043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B302FF-474E-4BAC-B6A1-6058A3E19AE8}">
   <dimension ref="A2:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9106,4 +11202,6393 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BAF3FE-15B5-4D31-9CEA-10CF09DAA4E3}">
+  <dimension ref="A2:M757"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="K189" sqref="K189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="5"/>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="5"/>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="5"/>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="5"/>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="5"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="5"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="5"/>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>347</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="5"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="5"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="5"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="5"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="5"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="5"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="5"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="8"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>349</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="15"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="22"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="18"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="18"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="18"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="15"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="18"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="18"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="15"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="18"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="18"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="18"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="18"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="18"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="15"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="18"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="18"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="15"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="18"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="18"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="18"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="18"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="18"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="15"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="18"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="18"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="15"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="18"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="18"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="18"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="18"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="18"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="15"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="18"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="18"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="15"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="18"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="18"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="18"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="18"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="18"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="15"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="18"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="18"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="15"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="18"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="18"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="18"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="18"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="18"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="18"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="15"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="18"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="22"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="18"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="18"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="18"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="18"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="18"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="15"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="18"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="22"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="18"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="18"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="18"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="15"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="18"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="18"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="18"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="18"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="18"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="15"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="18"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="18"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="18"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="18"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="18"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="20"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="15"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="18"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="18"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="18"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="18"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="18"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="18"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="18"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="15"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="18"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="18"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="18"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="18"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="15"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="18"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="18"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="18"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="18"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" s="15"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="18"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="18"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="18"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="18"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="18"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B184" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="18"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="18"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="18"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="18"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B188" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="18"/>
+      <c r="J188" t="s">
+        <v>42</v>
+      </c>
+      <c r="K188" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="18"/>
+      <c r="J189" t="s">
+        <v>42</v>
+      </c>
+      <c r="K189" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="18"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="15"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="18"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="18"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="18"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="18"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="18"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="18"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="18"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B198" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="18"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="18"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="15"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="18"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="18"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="18"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="18"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="18"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="19"/>
+      <c r="I205" s="20"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B209" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="22"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="18"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="18"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B212" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="18"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B213" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="18"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" s="19"/>
+      <c r="D214" s="19"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="20"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B217" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="22"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B218" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="18"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="18"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B220" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="18"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B221" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221" s="19"/>
+      <c r="D221" s="19"/>
+      <c r="E221" s="19"/>
+      <c r="F221" s="20"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B224" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C224" s="21"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="22"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="18"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="18"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="18"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B228" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="18"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B229" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C229" s="19"/>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="20"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B232" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C232" s="21"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="22"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B233" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="18"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B234" s="15"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="18"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="18"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C236" s="19"/>
+      <c r="D236" s="19"/>
+      <c r="E236" s="19"/>
+      <c r="F236" s="20"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="22"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="18"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B241" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="18"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B242" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="18"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B243" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="18"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B244" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="18"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B245" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C245" s="19"/>
+      <c r="D245" s="19"/>
+      <c r="E245" s="19"/>
+      <c r="F245" s="20"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="3"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B249" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="5"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B250" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="5"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B251" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C251" s="9"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="5"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B252" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="5"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="5"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B254" s="4"/>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="5"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B255" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="5"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B256" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C256" s="9"/>
+      <c r="D256" s="9"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="9"/>
+      <c r="G256" s="5"/>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B257" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="9"/>
+      <c r="G257" s="5"/>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B258" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="5"/>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B259" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="5"/>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B260" s="4"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="5"/>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B261" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="5"/>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B262" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="5"/>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B263" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="9"/>
+      <c r="G263" s="5"/>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B264" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C264" s="9"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="5"/>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B265" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="5"/>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B266" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="5"/>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B267" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="5"/>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B268" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="5"/>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B269" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="5"/>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B270" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="5"/>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B271" s="4"/>
+      <c r="C271" s="9"/>
+      <c r="D271" s="9"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="5"/>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B272" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="5"/>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B273" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C273" s="9"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="5"/>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B274" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="5"/>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B275" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="5"/>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B276" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="5"/>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B277" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C277" s="9"/>
+      <c r="D277" s="9"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="5"/>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B278" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C278" s="9"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="5"/>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B279" s="4"/>
+      <c r="C279" s="9"/>
+      <c r="D279" s="9"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="5"/>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B280" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="5"/>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B281" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C281" s="9"/>
+      <c r="D281" s="9"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="5"/>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B282" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C282" s="9"/>
+      <c r="D282" s="9"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="5"/>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B283" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C283" s="9"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="5"/>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B284" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C284" s="9"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="5"/>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B285" s="4"/>
+      <c r="C285" s="9"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="5"/>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B286" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C286" s="9"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="5"/>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B287" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C287" s="9"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="5"/>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B288" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C288" s="9"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="9"/>
+      <c r="G288" s="5"/>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B289" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C289" s="9"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="9"/>
+      <c r="G289" s="5"/>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B290" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C290" s="9"/>
+      <c r="D290" s="9"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="9"/>
+      <c r="G290" s="5"/>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B291" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C291" s="9"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="9"/>
+      <c r="G291" s="5"/>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B292" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C292" s="9"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="9"/>
+      <c r="G292" s="5"/>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B293" s="4"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="9"/>
+      <c r="G293" s="5"/>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B294" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C294" s="9"/>
+      <c r="D294" s="9"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="9"/>
+      <c r="G294" s="5"/>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B295" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C295" s="9"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="9"/>
+      <c r="G295" s="5"/>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B296" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C296" s="9"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="5"/>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B297" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C297" s="9"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="5"/>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B298" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C298" s="9"/>
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="5"/>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B299" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C299" s="9"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="5"/>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B300" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C300" s="9"/>
+      <c r="D300" s="9"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="9"/>
+      <c r="G300" s="5"/>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B301" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C301" s="9"/>
+      <c r="D301" s="9"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="5"/>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B302" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C302" s="9"/>
+      <c r="D302" s="9"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="5"/>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B303" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="5"/>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B304" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C304" s="9"/>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="9"/>
+      <c r="G304" s="5"/>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B305" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C305" s="9"/>
+      <c r="D305" s="9"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="9"/>
+      <c r="G305" s="5"/>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B306" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C306" s="9"/>
+      <c r="D306" s="9"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="5"/>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B307" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C307" s="9"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="5"/>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B308" s="4"/>
+      <c r="C308" s="9"/>
+      <c r="D308" s="9"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="5"/>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B309" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C309" s="9"/>
+      <c r="D309" s="9"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="9"/>
+      <c r="G309" s="5"/>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B310" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C310" s="9"/>
+      <c r="D310" s="9"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="9"/>
+      <c r="G310" s="5"/>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B311" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C311" s="9"/>
+      <c r="D311" s="9"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="9"/>
+      <c r="G311" s="5"/>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B312" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C312" s="9"/>
+      <c r="D312" s="9"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="9"/>
+      <c r="G312" s="5"/>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B313" s="4"/>
+      <c r="C313" s="9"/>
+      <c r="D313" s="9"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="9"/>
+      <c r="G313" s="5"/>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B314" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C314" s="9"/>
+      <c r="D314" s="9"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="9"/>
+      <c r="G314" s="5"/>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B315" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C315" s="9"/>
+      <c r="D315" s="9"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="5"/>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B316" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C316" s="9"/>
+      <c r="D316" s="9"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="9"/>
+      <c r="G316" s="5"/>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B317" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C317" s="9"/>
+      <c r="D317" s="9"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="9"/>
+      <c r="G317" s="5"/>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B318" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C318" s="9"/>
+      <c r="D318" s="9"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="9"/>
+      <c r="G318" s="5"/>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B319" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C319" s="9"/>
+      <c r="D319" s="9"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="9"/>
+      <c r="G319" s="5"/>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B320" s="4"/>
+      <c r="C320" s="9"/>
+      <c r="D320" s="9"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="9"/>
+      <c r="G320" s="5"/>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B321" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C321" s="9"/>
+      <c r="D321" s="9"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="9"/>
+      <c r="G321" s="5"/>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B322" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C322" s="9"/>
+      <c r="D322" s="9"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="9"/>
+      <c r="G322" s="5"/>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B323" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C323" s="9"/>
+      <c r="D323" s="9"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="9"/>
+      <c r="G323" s="5"/>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B324" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C324" s="9"/>
+      <c r="D324" s="9"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="9"/>
+      <c r="G324" s="5"/>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B325" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C325" s="9"/>
+      <c r="D325" s="9"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="9"/>
+      <c r="G325" s="5"/>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B326" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C326" s="9"/>
+      <c r="D326" s="9"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="9"/>
+      <c r="G326" s="5"/>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B327" s="4"/>
+      <c r="C327" s="9"/>
+      <c r="D327" s="9"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="9"/>
+      <c r="G327" s="5"/>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B328" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C328" s="9"/>
+      <c r="D328" s="9"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="9"/>
+      <c r="G328" s="5"/>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B329" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C329" s="9"/>
+      <c r="D329" s="9"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="9"/>
+      <c r="G329" s="5"/>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B330" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C330" s="9"/>
+      <c r="D330" s="9"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="9"/>
+      <c r="G330" s="5"/>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B331" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C331" s="9"/>
+      <c r="D331" s="9"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="9"/>
+      <c r="G331" s="5"/>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B332" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C332" s="9"/>
+      <c r="D332" s="9"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="9"/>
+      <c r="G332" s="5"/>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B333" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C333" s="9"/>
+      <c r="D333" s="9"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="9"/>
+      <c r="G333" s="5"/>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B334" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C334" s="9"/>
+      <c r="D334" s="9"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="9"/>
+      <c r="G334" s="5"/>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C335" s="9"/>
+      <c r="D335" s="9"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="9"/>
+      <c r="G335" s="5"/>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B336" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C336" s="9"/>
+      <c r="D336" s="9"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="9"/>
+      <c r="G336" s="5"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B337" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C337" s="9"/>
+      <c r="D337" s="9"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="9"/>
+      <c r="G337" s="5"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B338" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C338" s="9"/>
+      <c r="D338" s="9"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="9"/>
+      <c r="G338" s="5"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B339" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C339" s="7"/>
+      <c r="D339" s="7"/>
+      <c r="E339" s="7"/>
+      <c r="F339" s="7"/>
+      <c r="G339" s="8"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B342" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="3"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B343" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C343" s="9"/>
+      <c r="D343" s="9"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="9"/>
+      <c r="G343" s="9"/>
+      <c r="H343" s="5"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B344" s="4"/>
+      <c r="C344" s="9"/>
+      <c r="D344" s="9"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="9"/>
+      <c r="G344" s="9"/>
+      <c r="H344" s="5"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B345" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C345" s="9"/>
+      <c r="D345" s="9"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="9"/>
+      <c r="G345" s="9"/>
+      <c r="H345" s="5"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B346" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C346" s="9"/>
+      <c r="D346" s="9"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="9"/>
+      <c r="G346" s="9"/>
+      <c r="H346" s="5"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B347" s="4"/>
+      <c r="C347" s="9"/>
+      <c r="D347" s="9"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="9"/>
+      <c r="G347" s="9"/>
+      <c r="H347" s="5"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B348" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C348" s="9"/>
+      <c r="D348" s="9"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="9"/>
+      <c r="G348" s="9"/>
+      <c r="H348" s="5"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B349" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C349" s="9"/>
+      <c r="D349" s="9"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="9"/>
+      <c r="G349" s="9"/>
+      <c r="H349" s="5"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B350" s="4"/>
+      <c r="C350" s="9"/>
+      <c r="D350" s="9"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="9"/>
+      <c r="G350" s="9"/>
+      <c r="H350" s="5"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B351" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C351" s="9"/>
+      <c r="D351" s="9"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="9"/>
+      <c r="G351" s="9"/>
+      <c r="H351" s="5"/>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B352" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C352" s="9"/>
+      <c r="D352" s="9"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="9"/>
+      <c r="G352" s="9"/>
+      <c r="H352" s="5"/>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B353" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C353" s="9"/>
+      <c r="D353" s="9"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="9"/>
+      <c r="G353" s="9"/>
+      <c r="H353" s="5"/>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B354" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C354" s="9"/>
+      <c r="D354" s="9"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="9"/>
+      <c r="G354" s="9"/>
+      <c r="H354" s="5"/>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B355" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C355" s="9"/>
+      <c r="D355" s="9"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="9"/>
+      <c r="G355" s="9"/>
+      <c r="H355" s="5"/>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B356" s="4"/>
+      <c r="C356" s="9"/>
+      <c r="D356" s="9"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="9"/>
+      <c r="G356" s="9"/>
+      <c r="H356" s="5"/>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B357" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C357" s="9"/>
+      <c r="D357" s="9"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="9"/>
+      <c r="G357" s="9"/>
+      <c r="H357" s="5"/>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B358" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C358" s="7"/>
+      <c r="D358" s="7"/>
+      <c r="E358" s="7"/>
+      <c r="F358" s="7"/>
+      <c r="G358" s="7"/>
+      <c r="H358" s="8"/>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B361" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="2"/>
+      <c r="G361" s="2"/>
+      <c r="H361" s="2"/>
+      <c r="I361" s="2"/>
+      <c r="J361" s="2"/>
+      <c r="K361" s="2"/>
+      <c r="L361" s="2"/>
+      <c r="M361" s="3"/>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B362" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C362" s="9"/>
+      <c r="D362" s="9"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="9"/>
+      <c r="G362" s="9"/>
+      <c r="H362" s="9"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="9"/>
+      <c r="K362" s="9"/>
+      <c r="L362" s="9"/>
+      <c r="M362" s="5"/>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B363" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C363" s="9"/>
+      <c r="D363" s="9"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="9"/>
+      <c r="G363" s="9"/>
+      <c r="H363" s="9"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="9"/>
+      <c r="K363" s="9"/>
+      <c r="L363" s="9"/>
+      <c r="M363" s="5"/>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B364" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C364" s="9"/>
+      <c r="D364" s="9"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="9"/>
+      <c r="G364" s="9"/>
+      <c r="H364" s="9"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="9"/>
+      <c r="K364" s="9"/>
+      <c r="L364" s="9"/>
+      <c r="M364" s="5"/>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B365" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C365" s="9"/>
+      <c r="D365" s="9"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="9"/>
+      <c r="G365" s="9"/>
+      <c r="H365" s="9"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="9"/>
+      <c r="K365" s="9"/>
+      <c r="L365" s="9"/>
+      <c r="M365" s="5"/>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B366" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C366" s="9"/>
+      <c r="D366" s="9"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="9"/>
+      <c r="G366" s="9"/>
+      <c r="H366" s="9"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="9"/>
+      <c r="K366" s="9"/>
+      <c r="L366" s="9"/>
+      <c r="M366" s="5"/>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B367" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C367" s="9"/>
+      <c r="D367" s="9"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="9"/>
+      <c r="G367" s="9"/>
+      <c r="H367" s="9"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="9"/>
+      <c r="K367" s="9"/>
+      <c r="L367" s="9"/>
+      <c r="M367" s="5"/>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B368" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C368" s="9"/>
+      <c r="D368" s="9"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="9"/>
+      <c r="G368" s="9"/>
+      <c r="H368" s="9"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="9"/>
+      <c r="K368" s="9"/>
+      <c r="L368" s="9"/>
+      <c r="M368" s="5"/>
+    </row>
+    <row r="369" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B369" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C369" s="9"/>
+      <c r="D369" s="9"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="9"/>
+      <c r="G369" s="9"/>
+      <c r="H369" s="9"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="9"/>
+      <c r="K369" s="9"/>
+      <c r="L369" s="9"/>
+      <c r="M369" s="5"/>
+    </row>
+    <row r="370" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B370" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C370" s="9"/>
+      <c r="D370" s="9"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="9"/>
+      <c r="G370" s="9"/>
+      <c r="H370" s="9"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="9"/>
+      <c r="K370" s="9"/>
+      <c r="L370" s="9"/>
+      <c r="M370" s="5"/>
+    </row>
+    <row r="371" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B371" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C371" s="9"/>
+      <c r="D371" s="9"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="9"/>
+      <c r="G371" s="9"/>
+      <c r="H371" s="9"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="9"/>
+      <c r="K371" s="9"/>
+      <c r="L371" s="9"/>
+      <c r="M371" s="5"/>
+    </row>
+    <row r="372" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B372" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C372" s="9"/>
+      <c r="D372" s="9"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="9"/>
+      <c r="G372" s="9"/>
+      <c r="H372" s="9"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="9"/>
+      <c r="K372" s="9"/>
+      <c r="L372" s="9"/>
+      <c r="M372" s="5"/>
+    </row>
+    <row r="373" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B373" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C373" s="9"/>
+      <c r="D373" s="9"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="9"/>
+      <c r="G373" s="9"/>
+      <c r="H373" s="9"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="9"/>
+      <c r="K373" s="9"/>
+      <c r="L373" s="9"/>
+      <c r="M373" s="5"/>
+    </row>
+    <row r="374" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B374" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C374" s="9"/>
+      <c r="D374" s="9"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="9"/>
+      <c r="G374" s="9"/>
+      <c r="H374" s="9"/>
+      <c r="I374" s="9"/>
+      <c r="J374" s="9"/>
+      <c r="K374" s="9"/>
+      <c r="L374" s="9"/>
+      <c r="M374" s="5"/>
+    </row>
+    <row r="375" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B375" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C375" s="9"/>
+      <c r="D375" s="9"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="9"/>
+      <c r="G375" s="9"/>
+      <c r="H375" s="9"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="9"/>
+      <c r="K375" s="9"/>
+      <c r="L375" s="9"/>
+      <c r="M375" s="5"/>
+    </row>
+    <row r="376" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B376" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C376" s="9"/>
+      <c r="D376" s="9"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="9"/>
+      <c r="G376" s="9"/>
+      <c r="H376" s="9"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="9"/>
+      <c r="K376" s="9"/>
+      <c r="L376" s="9"/>
+      <c r="M376" s="5"/>
+    </row>
+    <row r="377" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B377" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C377" s="9"/>
+      <c r="D377" s="9"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="9"/>
+      <c r="G377" s="9"/>
+      <c r="H377" s="9"/>
+      <c r="I377" s="9"/>
+      <c r="J377" s="9"/>
+      <c r="K377" s="9"/>
+      <c r="L377" s="9"/>
+      <c r="M377" s="5"/>
+    </row>
+    <row r="378" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B378" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C378" s="9"/>
+      <c r="D378" s="9"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="9"/>
+      <c r="G378" s="9"/>
+      <c r="H378" s="9"/>
+      <c r="I378" s="9"/>
+      <c r="J378" s="9"/>
+      <c r="K378" s="9"/>
+      <c r="L378" s="9"/>
+      <c r="M378" s="5"/>
+    </row>
+    <row r="379" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B379" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C379" s="9"/>
+      <c r="D379" s="9"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="9"/>
+      <c r="G379" s="9"/>
+      <c r="H379" s="9"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="9"/>
+      <c r="K379" s="9"/>
+      <c r="L379" s="9"/>
+      <c r="M379" s="5"/>
+    </row>
+    <row r="380" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B380" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C380" s="9"/>
+      <c r="D380" s="9"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="9"/>
+      <c r="G380" s="9"/>
+      <c r="H380" s="9"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="9"/>
+      <c r="K380" s="9"/>
+      <c r="L380" s="9"/>
+      <c r="M380" s="5"/>
+    </row>
+    <row r="381" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B381" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C381" s="9"/>
+      <c r="D381" s="9"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="9"/>
+      <c r="G381" s="9"/>
+      <c r="H381" s="9"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="9"/>
+      <c r="K381" s="9"/>
+      <c r="L381" s="9"/>
+      <c r="M381" s="5"/>
+    </row>
+    <row r="382" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B382" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C382" s="9"/>
+      <c r="D382" s="9"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="9"/>
+      <c r="G382" s="9"/>
+      <c r="H382" s="9"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="9"/>
+      <c r="K382" s="9"/>
+      <c r="L382" s="9"/>
+      <c r="M382" s="5"/>
+    </row>
+    <row r="383" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B383" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C383" s="9"/>
+      <c r="D383" s="9"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="9"/>
+      <c r="G383" s="9"/>
+      <c r="H383" s="9"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="9"/>
+      <c r="K383" s="9"/>
+      <c r="L383" s="9"/>
+      <c r="M383" s="5"/>
+    </row>
+    <row r="384" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B384" s="4"/>
+      <c r="C384" s="9"/>
+      <c r="D384" s="9"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="9"/>
+      <c r="G384" s="9"/>
+      <c r="H384" s="9"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="9"/>
+      <c r="K384" s="9"/>
+      <c r="L384" s="9"/>
+      <c r="M384" s="5"/>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B385" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C385" s="9"/>
+      <c r="D385" s="9"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="9"/>
+      <c r="G385" s="9"/>
+      <c r="H385" s="9"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="9"/>
+      <c r="K385" s="9"/>
+      <c r="L385" s="9"/>
+      <c r="M385" s="5"/>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B386" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C386" s="9"/>
+      <c r="D386" s="9"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="9"/>
+      <c r="G386" s="9"/>
+      <c r="H386" s="9"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="9"/>
+      <c r="K386" s="9"/>
+      <c r="L386" s="9"/>
+      <c r="M386" s="5"/>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B387" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C387" s="9"/>
+      <c r="D387" s="9"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="9"/>
+      <c r="G387" s="9"/>
+      <c r="H387" s="9"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="9"/>
+      <c r="K387" s="9"/>
+      <c r="L387" s="9"/>
+      <c r="M387" s="5"/>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B388" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C388" s="9"/>
+      <c r="D388" s="9"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="9"/>
+      <c r="G388" s="9"/>
+      <c r="H388" s="9"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="9"/>
+      <c r="K388" s="9"/>
+      <c r="L388" s="9"/>
+      <c r="M388" s="5"/>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B389" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C389" s="9"/>
+      <c r="D389" s="9"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="9"/>
+      <c r="G389" s="9"/>
+      <c r="H389" s="9"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="9"/>
+      <c r="K389" s="9"/>
+      <c r="L389" s="9"/>
+      <c r="M389" s="5"/>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B390" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C390" s="9"/>
+      <c r="D390" s="9"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="9"/>
+      <c r="G390" s="9"/>
+      <c r="H390" s="9"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="9"/>
+      <c r="K390" s="9"/>
+      <c r="L390" s="9"/>
+      <c r="M390" s="5"/>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B391" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C391" s="7"/>
+      <c r="D391" s="7"/>
+      <c r="E391" s="7"/>
+      <c r="F391" s="7"/>
+      <c r="G391" s="7"/>
+      <c r="H391" s="7"/>
+      <c r="I391" s="7"/>
+      <c r="J391" s="7"/>
+      <c r="K391" s="7"/>
+      <c r="L391" s="7"/>
+      <c r="M391" s="8"/>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B394" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="E394" s="2"/>
+      <c r="F394" s="2"/>
+      <c r="G394" s="2"/>
+      <c r="H394" s="2"/>
+      <c r="I394" s="2"/>
+      <c r="J394" s="2"/>
+      <c r="K394" s="3"/>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B395" s="4"/>
+      <c r="C395" s="9"/>
+      <c r="D395" s="9"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="9"/>
+      <c r="G395" s="9"/>
+      <c r="H395" s="9"/>
+      <c r="I395" s="9"/>
+      <c r="J395" s="9"/>
+      <c r="K395" s="5"/>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B396" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C396" s="9"/>
+      <c r="D396" s="9"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="9"/>
+      <c r="G396" s="9"/>
+      <c r="H396" s="9"/>
+      <c r="I396" s="9"/>
+      <c r="J396" s="9"/>
+      <c r="K396" s="5"/>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B397" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C397" s="9"/>
+      <c r="D397" s="9"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="9"/>
+      <c r="G397" s="9"/>
+      <c r="H397" s="9"/>
+      <c r="I397" s="9"/>
+      <c r="J397" s="9"/>
+      <c r="K397" s="5"/>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B398" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C398" s="9"/>
+      <c r="D398" s="9"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="9"/>
+      <c r="G398" s="9"/>
+      <c r="H398" s="9"/>
+      <c r="I398" s="9"/>
+      <c r="J398" s="9"/>
+      <c r="K398" s="5"/>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B399" s="4"/>
+      <c r="C399" s="9"/>
+      <c r="D399" s="9"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="9"/>
+      <c r="G399" s="9"/>
+      <c r="H399" s="9"/>
+      <c r="I399" s="9"/>
+      <c r="J399" s="9"/>
+      <c r="K399" s="5"/>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B400" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C400" s="9"/>
+      <c r="D400" s="9"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="9"/>
+      <c r="G400" s="9"/>
+      <c r="H400" s="9"/>
+      <c r="I400" s="9"/>
+      <c r="J400" s="9"/>
+      <c r="K400" s="5"/>
+    </row>
+    <row r="401" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B401" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C401" s="9"/>
+      <c r="D401" s="9"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="9"/>
+      <c r="G401" s="9"/>
+      <c r="H401" s="9"/>
+      <c r="I401" s="9"/>
+      <c r="J401" s="9"/>
+      <c r="K401" s="5"/>
+    </row>
+    <row r="402" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B402" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C402" s="9"/>
+      <c r="D402" s="9"/>
+      <c r="E402" s="9"/>
+      <c r="F402" s="9"/>
+      <c r="G402" s="9"/>
+      <c r="H402" s="9"/>
+      <c r="I402" s="9"/>
+      <c r="J402" s="9"/>
+      <c r="K402" s="5"/>
+    </row>
+    <row r="403" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B403" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C403" s="9"/>
+      <c r="D403" s="9"/>
+      <c r="E403" s="9"/>
+      <c r="F403" s="9"/>
+      <c r="G403" s="9"/>
+      <c r="H403" s="9"/>
+      <c r="I403" s="9"/>
+      <c r="J403" s="9"/>
+      <c r="K403" s="5"/>
+    </row>
+    <row r="404" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B404" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C404" s="9"/>
+      <c r="D404" s="9"/>
+      <c r="E404" s="9"/>
+      <c r="F404" s="9"/>
+      <c r="G404" s="9"/>
+      <c r="H404" s="9"/>
+      <c r="I404" s="9"/>
+      <c r="J404" s="9"/>
+      <c r="K404" s="5"/>
+    </row>
+    <row r="405" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B405" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C405" s="9"/>
+      <c r="D405" s="9"/>
+      <c r="E405" s="9"/>
+      <c r="F405" s="9"/>
+      <c r="G405" s="9"/>
+      <c r="H405" s="9"/>
+      <c r="I405" s="9"/>
+      <c r="J405" s="9"/>
+      <c r="K405" s="5"/>
+    </row>
+    <row r="406" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B406" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C406" s="9"/>
+      <c r="D406" s="9"/>
+      <c r="E406" s="9"/>
+      <c r="F406" s="9"/>
+      <c r="G406" s="9"/>
+      <c r="H406" s="9"/>
+      <c r="I406" s="9"/>
+      <c r="J406" s="9"/>
+      <c r="K406" s="5"/>
+    </row>
+    <row r="407" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B407" s="4"/>
+      <c r="C407" s="9"/>
+      <c r="D407" s="9"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="9"/>
+      <c r="G407" s="9"/>
+      <c r="H407" s="9"/>
+      <c r="I407" s="9"/>
+      <c r="J407" s="9"/>
+      <c r="K407" s="5"/>
+    </row>
+    <row r="408" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B408" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C408" s="9"/>
+      <c r="D408" s="9"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="9"/>
+      <c r="G408" s="9"/>
+      <c r="H408" s="9"/>
+      <c r="I408" s="9"/>
+      <c r="J408" s="9"/>
+      <c r="K408" s="5"/>
+    </row>
+    <row r="409" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B409" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C409" s="9"/>
+      <c r="D409" s="9"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="9"/>
+      <c r="G409" s="9"/>
+      <c r="H409" s="9"/>
+      <c r="I409" s="9"/>
+      <c r="J409" s="9"/>
+      <c r="K409" s="5"/>
+    </row>
+    <row r="410" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B410" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C410" s="9"/>
+      <c r="D410" s="9"/>
+      <c r="E410" s="9"/>
+      <c r="F410" s="9"/>
+      <c r="G410" s="9"/>
+      <c r="H410" s="9"/>
+      <c r="I410" s="9"/>
+      <c r="J410" s="9"/>
+      <c r="K410" s="5"/>
+    </row>
+    <row r="411" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B411" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C411" s="9"/>
+      <c r="D411" s="9"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="9"/>
+      <c r="G411" s="9"/>
+      <c r="H411" s="9"/>
+      <c r="I411" s="9"/>
+      <c r="J411" s="9"/>
+      <c r="K411" s="5"/>
+    </row>
+    <row r="412" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B412" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C412" s="9"/>
+      <c r="D412" s="9"/>
+      <c r="E412" s="9"/>
+      <c r="F412" s="9"/>
+      <c r="G412" s="9"/>
+      <c r="H412" s="9"/>
+      <c r="I412" s="9"/>
+      <c r="J412" s="9"/>
+      <c r="K412" s="5"/>
+    </row>
+    <row r="413" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B413" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C413" s="9"/>
+      <c r="D413" s="9"/>
+      <c r="E413" s="9"/>
+      <c r="F413" s="9"/>
+      <c r="G413" s="9"/>
+      <c r="H413" s="9"/>
+      <c r="I413" s="9"/>
+      <c r="J413" s="9"/>
+      <c r="K413" s="5"/>
+    </row>
+    <row r="414" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B414" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C414" s="9"/>
+      <c r="D414" s="9"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="9"/>
+      <c r="G414" s="9"/>
+      <c r="H414" s="9"/>
+      <c r="I414" s="9"/>
+      <c r="J414" s="9"/>
+      <c r="K414" s="5"/>
+    </row>
+    <row r="415" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B415" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C415" s="9"/>
+      <c r="D415" s="9"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="9"/>
+      <c r="G415" s="9"/>
+      <c r="H415" s="9"/>
+      <c r="I415" s="9"/>
+      <c r="J415" s="9"/>
+      <c r="K415" s="5"/>
+    </row>
+    <row r="416" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B416" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C416" s="9"/>
+      <c r="D416" s="9"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="9"/>
+      <c r="G416" s="9"/>
+      <c r="H416" s="9"/>
+      <c r="I416" s="9"/>
+      <c r="J416" s="9"/>
+      <c r="K416" s="5"/>
+    </row>
+    <row r="417" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B417" s="4"/>
+      <c r="C417" s="9"/>
+      <c r="D417" s="9"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="9"/>
+      <c r="G417" s="9"/>
+      <c r="H417" s="9"/>
+      <c r="I417" s="9"/>
+      <c r="J417" s="9"/>
+      <c r="K417" s="5"/>
+    </row>
+    <row r="418" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B418" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C418" s="9"/>
+      <c r="D418" s="9"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="9"/>
+      <c r="G418" s="9"/>
+      <c r="H418" s="9"/>
+      <c r="I418" s="9"/>
+      <c r="J418" s="9"/>
+      <c r="K418" s="5"/>
+    </row>
+    <row r="419" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B419" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C419" s="9"/>
+      <c r="D419" s="9"/>
+      <c r="E419" s="9"/>
+      <c r="F419" s="9"/>
+      <c r="G419" s="9"/>
+      <c r="H419" s="9"/>
+      <c r="I419" s="9"/>
+      <c r="J419" s="9"/>
+      <c r="K419" s="5"/>
+    </row>
+    <row r="420" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B420" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C420" s="9"/>
+      <c r="D420" s="9"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="9"/>
+      <c r="G420" s="9"/>
+      <c r="H420" s="9"/>
+      <c r="I420" s="9"/>
+      <c r="J420" s="9"/>
+      <c r="K420" s="5"/>
+    </row>
+    <row r="421" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B421" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C421" s="9"/>
+      <c r="D421" s="9"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="9"/>
+      <c r="G421" s="9"/>
+      <c r="H421" s="9"/>
+      <c r="I421" s="9"/>
+      <c r="J421" s="9"/>
+      <c r="K421" s="5"/>
+    </row>
+    <row r="422" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B422" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C422" s="9"/>
+      <c r="D422" s="9"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="9"/>
+      <c r="G422" s="9"/>
+      <c r="H422" s="9"/>
+      <c r="I422" s="9"/>
+      <c r="J422" s="9"/>
+      <c r="K422" s="5"/>
+    </row>
+    <row r="423" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B423" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C423" s="9"/>
+      <c r="D423" s="9"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="9"/>
+      <c r="G423" s="9"/>
+      <c r="H423" s="9"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="9"/>
+      <c r="K423" s="5"/>
+    </row>
+    <row r="424" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B424" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C424" s="9"/>
+      <c r="D424" s="9"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="9"/>
+      <c r="G424" s="9"/>
+      <c r="H424" s="9"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="9"/>
+      <c r="K424" s="5"/>
+    </row>
+    <row r="425" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B425" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C425" s="9"/>
+      <c r="D425" s="9"/>
+      <c r="E425" s="9"/>
+      <c r="F425" s="9"/>
+      <c r="G425" s="9"/>
+      <c r="H425" s="9"/>
+      <c r="I425" s="9"/>
+      <c r="J425" s="9"/>
+      <c r="K425" s="5"/>
+    </row>
+    <row r="426" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B426" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C426" s="9"/>
+      <c r="D426" s="9"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="9"/>
+      <c r="G426" s="9"/>
+      <c r="H426" s="9"/>
+      <c r="I426" s="9"/>
+      <c r="J426" s="9"/>
+      <c r="K426" s="5"/>
+    </row>
+    <row r="427" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B427" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C427" s="9"/>
+      <c r="D427" s="9"/>
+      <c r="E427" s="9"/>
+      <c r="F427" s="9"/>
+      <c r="G427" s="9"/>
+      <c r="H427" s="9"/>
+      <c r="I427" s="9"/>
+      <c r="J427" s="9"/>
+      <c r="K427" s="5"/>
+    </row>
+    <row r="428" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B428" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C428" s="9"/>
+      <c r="D428" s="9"/>
+      <c r="E428" s="9"/>
+      <c r="F428" s="9"/>
+      <c r="G428" s="9"/>
+      <c r="H428" s="9"/>
+      <c r="I428" s="9"/>
+      <c r="J428" s="9"/>
+      <c r="K428" s="5"/>
+    </row>
+    <row r="429" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B429" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C429" s="9"/>
+      <c r="D429" s="9"/>
+      <c r="E429" s="9"/>
+      <c r="F429" s="9"/>
+      <c r="G429" s="9"/>
+      <c r="H429" s="9"/>
+      <c r="I429" s="9"/>
+      <c r="J429" s="9"/>
+      <c r="K429" s="5"/>
+    </row>
+    <row r="430" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B430" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C430" s="9"/>
+      <c r="D430" s="9"/>
+      <c r="E430" s="9"/>
+      <c r="F430" s="9"/>
+      <c r="G430" s="9"/>
+      <c r="H430" s="9"/>
+      <c r="I430" s="9"/>
+      <c r="J430" s="9"/>
+      <c r="K430" s="5"/>
+    </row>
+    <row r="431" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B431" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C431" s="9"/>
+      <c r="D431" s="9"/>
+      <c r="E431" s="9"/>
+      <c r="F431" s="9"/>
+      <c r="G431" s="9"/>
+      <c r="H431" s="9"/>
+      <c r="I431" s="9"/>
+      <c r="J431" s="9"/>
+      <c r="K431" s="5"/>
+    </row>
+    <row r="432" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B432" s="4"/>
+      <c r="C432" s="9"/>
+      <c r="D432" s="9"/>
+      <c r="E432" s="9"/>
+      <c r="F432" s="9"/>
+      <c r="G432" s="9"/>
+      <c r="H432" s="9"/>
+      <c r="I432" s="9"/>
+      <c r="J432" s="9"/>
+      <c r="K432" s="5"/>
+    </row>
+    <row r="433" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B433" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C433" s="9"/>
+      <c r="D433" s="9"/>
+      <c r="E433" s="9"/>
+      <c r="F433" s="9"/>
+      <c r="G433" s="9"/>
+      <c r="H433" s="9"/>
+      <c r="I433" s="9"/>
+      <c r="J433" s="9"/>
+      <c r="K433" s="5"/>
+    </row>
+    <row r="434" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B434" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C434" s="9"/>
+      <c r="D434" s="9"/>
+      <c r="E434" s="9"/>
+      <c r="F434" s="9"/>
+      <c r="G434" s="9"/>
+      <c r="H434" s="9"/>
+      <c r="I434" s="9"/>
+      <c r="J434" s="9"/>
+      <c r="K434" s="5"/>
+    </row>
+    <row r="435" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B435" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C435" s="9"/>
+      <c r="D435" s="9"/>
+      <c r="E435" s="9"/>
+      <c r="F435" s="9"/>
+      <c r="G435" s="9"/>
+      <c r="H435" s="9"/>
+      <c r="I435" s="9"/>
+      <c r="J435" s="9"/>
+      <c r="K435" s="5"/>
+    </row>
+    <row r="436" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B436" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C436" s="9"/>
+      <c r="D436" s="9"/>
+      <c r="E436" s="9"/>
+      <c r="F436" s="9"/>
+      <c r="G436" s="9"/>
+      <c r="H436" s="9"/>
+      <c r="I436" s="9"/>
+      <c r="J436" s="9"/>
+      <c r="K436" s="5"/>
+    </row>
+    <row r="437" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B437" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C437" s="9"/>
+      <c r="D437" s="9"/>
+      <c r="E437" s="9"/>
+      <c r="F437" s="9"/>
+      <c r="G437" s="9"/>
+      <c r="H437" s="9"/>
+      <c r="I437" s="9"/>
+      <c r="J437" s="9"/>
+      <c r="K437" s="5"/>
+    </row>
+    <row r="438" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B438" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C438" s="9"/>
+      <c r="D438" s="9"/>
+      <c r="E438" s="9"/>
+      <c r="F438" s="9"/>
+      <c r="G438" s="9"/>
+      <c r="H438" s="9"/>
+      <c r="I438" s="9"/>
+      <c r="J438" s="9"/>
+      <c r="K438" s="5"/>
+    </row>
+    <row r="439" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B439" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C439" s="9"/>
+      <c r="D439" s="9"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="9"/>
+      <c r="G439" s="9"/>
+      <c r="H439" s="9"/>
+      <c r="I439" s="9"/>
+      <c r="J439" s="9"/>
+      <c r="K439" s="5"/>
+    </row>
+    <row r="440" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B440" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C440" s="9"/>
+      <c r="D440" s="9"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="9"/>
+      <c r="G440" s="9"/>
+      <c r="H440" s="9"/>
+      <c r="I440" s="9"/>
+      <c r="J440" s="9"/>
+      <c r="K440" s="5"/>
+    </row>
+    <row r="441" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B441" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C441" s="9"/>
+      <c r="D441" s="9"/>
+      <c r="E441" s="9"/>
+      <c r="F441" s="9"/>
+      <c r="G441" s="9"/>
+      <c r="H441" s="9"/>
+      <c r="I441" s="9"/>
+      <c r="J441" s="9"/>
+      <c r="K441" s="5"/>
+    </row>
+    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B442" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C442" s="9"/>
+      <c r="D442" s="9"/>
+      <c r="E442" s="9"/>
+      <c r="F442" s="9"/>
+      <c r="G442" s="9"/>
+      <c r="H442" s="9"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="9"/>
+      <c r="K442" s="5"/>
+    </row>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B443" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C443" s="9"/>
+      <c r="D443" s="9"/>
+      <c r="E443" s="9"/>
+      <c r="F443" s="9"/>
+      <c r="G443" s="9"/>
+      <c r="H443" s="9"/>
+      <c r="I443" s="9"/>
+      <c r="J443" s="9"/>
+      <c r="K443" s="5"/>
+    </row>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B444" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C444" s="9"/>
+      <c r="D444" s="9"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="9"/>
+      <c r="G444" s="9"/>
+      <c r="H444" s="9"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="9"/>
+      <c r="K444" s="5"/>
+    </row>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B445" s="4"/>
+      <c r="C445" s="9"/>
+      <c r="D445" s="9"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="9"/>
+      <c r="G445" s="9"/>
+      <c r="H445" s="9"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="9"/>
+      <c r="K445" s="5"/>
+    </row>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B446" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C446" s="9"/>
+      <c r="D446" s="9"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="9"/>
+      <c r="G446" s="9"/>
+      <c r="H446" s="9"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="9"/>
+      <c r="K446" s="5"/>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B447" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C447" s="9"/>
+      <c r="D447" s="9"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="9"/>
+      <c r="G447" s="9"/>
+      <c r="H447" s="9"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="9"/>
+      <c r="K447" s="5"/>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B448" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C448" s="9"/>
+      <c r="D448" s="9"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="9"/>
+      <c r="G448" s="9"/>
+      <c r="H448" s="9"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="9"/>
+      <c r="K448" s="5"/>
+    </row>
+    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B449" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C449" s="9"/>
+      <c r="D449" s="9"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="9"/>
+      <c r="G449" s="9"/>
+      <c r="H449" s="9"/>
+      <c r="I449" s="9"/>
+      <c r="J449" s="9"/>
+      <c r="K449" s="5"/>
+    </row>
+    <row r="450" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B450" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C450" s="9"/>
+      <c r="D450" s="9"/>
+      <c r="E450" s="9"/>
+      <c r="F450" s="9"/>
+      <c r="G450" s="9"/>
+      <c r="H450" s="9"/>
+      <c r="I450" s="9"/>
+      <c r="J450" s="9"/>
+      <c r="K450" s="5"/>
+    </row>
+    <row r="451" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B451" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C451" s="9"/>
+      <c r="D451" s="9"/>
+      <c r="E451" s="9"/>
+      <c r="F451" s="9"/>
+      <c r="G451" s="9"/>
+      <c r="H451" s="9"/>
+      <c r="I451" s="9"/>
+      <c r="J451" s="9"/>
+      <c r="K451" s="5"/>
+    </row>
+    <row r="452" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B452" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C452" s="9"/>
+      <c r="D452" s="9"/>
+      <c r="E452" s="9"/>
+      <c r="F452" s="9"/>
+      <c r="G452" s="9"/>
+      <c r="H452" s="9"/>
+      <c r="I452" s="9"/>
+      <c r="J452" s="9"/>
+      <c r="K452" s="5"/>
+    </row>
+    <row r="453" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B453" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C453" s="9"/>
+      <c r="D453" s="9"/>
+      <c r="E453" s="9"/>
+      <c r="F453" s="9"/>
+      <c r="G453" s="9"/>
+      <c r="H453" s="9"/>
+      <c r="I453" s="9"/>
+      <c r="J453" s="9"/>
+      <c r="K453" s="5"/>
+    </row>
+    <row r="454" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B454" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C454" s="9"/>
+      <c r="D454" s="9"/>
+      <c r="E454" s="9"/>
+      <c r="F454" s="9"/>
+      <c r="G454" s="9"/>
+      <c r="H454" s="9"/>
+      <c r="I454" s="9"/>
+      <c r="J454" s="9"/>
+      <c r="K454" s="5"/>
+    </row>
+    <row r="455" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B455" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C455" s="9"/>
+      <c r="D455" s="9"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="9"/>
+      <c r="G455" s="9"/>
+      <c r="H455" s="9"/>
+      <c r="I455" s="9"/>
+      <c r="J455" s="9"/>
+      <c r="K455" s="5"/>
+    </row>
+    <row r="456" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B456" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C456" s="9"/>
+      <c r="D456" s="9"/>
+      <c r="E456" s="9"/>
+      <c r="F456" s="9"/>
+      <c r="G456" s="9"/>
+      <c r="H456" s="9"/>
+      <c r="I456" s="9"/>
+      <c r="J456" s="9"/>
+      <c r="K456" s="5"/>
+    </row>
+    <row r="457" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B457" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C457" s="9"/>
+      <c r="D457" s="9"/>
+      <c r="E457" s="9"/>
+      <c r="F457" s="9"/>
+      <c r="G457" s="9"/>
+      <c r="H457" s="9"/>
+      <c r="I457" s="9"/>
+      <c r="J457" s="9"/>
+      <c r="K457" s="5"/>
+    </row>
+    <row r="458" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B458" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C458" s="9"/>
+      <c r="D458" s="9"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="9"/>
+      <c r="G458" s="9"/>
+      <c r="H458" s="9"/>
+      <c r="I458" s="9"/>
+      <c r="J458" s="9"/>
+      <c r="K458" s="5"/>
+    </row>
+    <row r="459" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B459" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C459" s="9"/>
+      <c r="D459" s="9"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="9"/>
+      <c r="G459" s="9"/>
+      <c r="H459" s="9"/>
+      <c r="I459" s="9"/>
+      <c r="J459" s="9"/>
+      <c r="K459" s="5"/>
+    </row>
+    <row r="460" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B460" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C460" s="9"/>
+      <c r="D460" s="9"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="9"/>
+      <c r="G460" s="9"/>
+      <c r="H460" s="9"/>
+      <c r="I460" s="9"/>
+      <c r="J460" s="9"/>
+      <c r="K460" s="5"/>
+    </row>
+    <row r="461" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B461" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C461" s="9"/>
+      <c r="D461" s="9"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="9"/>
+      <c r="G461" s="9"/>
+      <c r="H461" s="9"/>
+      <c r="I461" s="9"/>
+      <c r="J461" s="9"/>
+      <c r="K461" s="5"/>
+    </row>
+    <row r="462" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B462" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C462" s="9"/>
+      <c r="D462" s="9"/>
+      <c r="E462" s="9"/>
+      <c r="F462" s="9"/>
+      <c r="G462" s="9"/>
+      <c r="H462" s="9"/>
+      <c r="I462" s="9"/>
+      <c r="J462" s="9"/>
+      <c r="K462" s="5"/>
+    </row>
+    <row r="463" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B463" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C463" s="9"/>
+      <c r="D463" s="9"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="9"/>
+      <c r="G463" s="9"/>
+      <c r="H463" s="9"/>
+      <c r="I463" s="9"/>
+      <c r="J463" s="9"/>
+      <c r="K463" s="5"/>
+    </row>
+    <row r="464" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B464" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C464" s="9"/>
+      <c r="D464" s="9"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="9"/>
+      <c r="G464" s="9"/>
+      <c r="H464" s="9"/>
+      <c r="I464" s="9"/>
+      <c r="J464" s="9"/>
+      <c r="K464" s="5"/>
+    </row>
+    <row r="465" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B465" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C465" s="9"/>
+      <c r="D465" s="9"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="9"/>
+      <c r="G465" s="9"/>
+      <c r="H465" s="9"/>
+      <c r="I465" s="9"/>
+      <c r="J465" s="9"/>
+      <c r="K465" s="5"/>
+    </row>
+    <row r="466" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B466" s="4"/>
+      <c r="C466" s="9"/>
+      <c r="D466" s="9"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="9"/>
+      <c r="G466" s="9"/>
+      <c r="H466" s="9"/>
+      <c r="I466" s="9"/>
+      <c r="J466" s="9"/>
+      <c r="K466" s="5"/>
+    </row>
+    <row r="467" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B467" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C467" s="9"/>
+      <c r="D467" s="9"/>
+      <c r="E467" s="9"/>
+      <c r="F467" s="9"/>
+      <c r="G467" s="9"/>
+      <c r="H467" s="9"/>
+      <c r="I467" s="9"/>
+      <c r="J467" s="9"/>
+      <c r="K467" s="5"/>
+    </row>
+    <row r="468" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B468" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C468" s="9"/>
+      <c r="D468" s="9"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="9"/>
+      <c r="G468" s="9"/>
+      <c r="H468" s="9"/>
+      <c r="I468" s="9"/>
+      <c r="J468" s="9"/>
+      <c r="K468" s="5"/>
+    </row>
+    <row r="469" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B469" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C469" s="9"/>
+      <c r="D469" s="9"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="9"/>
+      <c r="G469" s="9"/>
+      <c r="H469" s="9"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="9"/>
+      <c r="K469" s="5"/>
+    </row>
+    <row r="470" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B470" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C470" s="9"/>
+      <c r="D470" s="9"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="9"/>
+      <c r="G470" s="9"/>
+      <c r="H470" s="9"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="9"/>
+      <c r="K470" s="5"/>
+    </row>
+    <row r="471" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B471" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C471" s="9"/>
+      <c r="D471" s="9"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="9"/>
+      <c r="G471" s="9"/>
+      <c r="H471" s="9"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="9"/>
+      <c r="K471" s="5"/>
+    </row>
+    <row r="472" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B472" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C472" s="9"/>
+      <c r="D472" s="9"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="9"/>
+      <c r="G472" s="9"/>
+      <c r="H472" s="9"/>
+      <c r="I472" s="9"/>
+      <c r="J472" s="9"/>
+      <c r="K472" s="5"/>
+    </row>
+    <row r="473" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B473" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C473" s="9"/>
+      <c r="D473" s="9"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="9"/>
+      <c r="G473" s="9"/>
+      <c r="H473" s="9"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="9"/>
+      <c r="K473" s="5"/>
+    </row>
+    <row r="474" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B474" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C474" s="9"/>
+      <c r="D474" s="9"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="9"/>
+      <c r="G474" s="9"/>
+      <c r="H474" s="9"/>
+      <c r="I474" s="9"/>
+      <c r="J474" s="9"/>
+      <c r="K474" s="5"/>
+    </row>
+    <row r="475" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B475" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C475" s="9"/>
+      <c r="D475" s="9"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="9"/>
+      <c r="G475" s="9"/>
+      <c r="H475" s="9"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="9"/>
+      <c r="K475" s="5"/>
+    </row>
+    <row r="476" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B476" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C476" s="9"/>
+      <c r="D476" s="9"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="9"/>
+      <c r="G476" s="9"/>
+      <c r="H476" s="9"/>
+      <c r="I476" s="9"/>
+      <c r="J476" s="9"/>
+      <c r="K476" s="5"/>
+    </row>
+    <row r="477" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B477" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C477" s="9"/>
+      <c r="D477" s="9"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="9"/>
+      <c r="G477" s="9"/>
+      <c r="H477" s="9"/>
+      <c r="I477" s="9"/>
+      <c r="J477" s="9"/>
+      <c r="K477" s="5"/>
+    </row>
+    <row r="478" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B478" s="4"/>
+      <c r="C478" s="9"/>
+      <c r="D478" s="9"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="9"/>
+      <c r="G478" s="9"/>
+      <c r="H478" s="9"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="9"/>
+      <c r="K478" s="5"/>
+    </row>
+    <row r="479" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B479" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C479" s="9"/>
+      <c r="D479" s="9"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="9"/>
+      <c r="G479" s="9"/>
+      <c r="H479" s="9"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="9"/>
+      <c r="K479" s="5"/>
+    </row>
+    <row r="480" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B480" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C480" s="9"/>
+      <c r="D480" s="9"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="9"/>
+      <c r="G480" s="9"/>
+      <c r="H480" s="9"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="9"/>
+      <c r="K480" s="5"/>
+    </row>
+    <row r="481" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B481" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C481" s="9"/>
+      <c r="D481" s="9"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="9"/>
+      <c r="G481" s="9"/>
+      <c r="H481" s="9"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="9"/>
+      <c r="K481" s="5"/>
+    </row>
+    <row r="482" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B482" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C482" s="9"/>
+      <c r="D482" s="9"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="9"/>
+      <c r="G482" s="9"/>
+      <c r="H482" s="9"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="9"/>
+      <c r="K482" s="5"/>
+    </row>
+    <row r="483" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B483" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C483" s="9"/>
+      <c r="D483" s="9"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="9"/>
+      <c r="G483" s="9"/>
+      <c r="H483" s="9"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="9"/>
+      <c r="K483" s="5"/>
+    </row>
+    <row r="484" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B484" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C484" s="9"/>
+      <c r="D484" s="9"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="9"/>
+      <c r="G484" s="9"/>
+      <c r="H484" s="9"/>
+      <c r="I484" s="9"/>
+      <c r="J484" s="9"/>
+      <c r="K484" s="5"/>
+    </row>
+    <row r="485" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B485" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C485" s="9"/>
+      <c r="D485" s="9"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="9"/>
+      <c r="G485" s="9"/>
+      <c r="H485" s="9"/>
+      <c r="I485" s="9"/>
+      <c r="J485" s="9"/>
+      <c r="K485" s="5"/>
+    </row>
+    <row r="486" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B486" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C486" s="9"/>
+      <c r="D486" s="9"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="9"/>
+      <c r="G486" s="9"/>
+      <c r="H486" s="9"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="9"/>
+      <c r="K486" s="5"/>
+    </row>
+    <row r="487" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B487" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C487" s="9"/>
+      <c r="D487" s="9"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="9"/>
+      <c r="G487" s="9"/>
+      <c r="H487" s="9"/>
+      <c r="I487" s="9"/>
+      <c r="J487" s="9"/>
+      <c r="K487" s="5"/>
+    </row>
+    <row r="488" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B488" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C488" s="9"/>
+      <c r="D488" s="9"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="9"/>
+      <c r="G488" s="9"/>
+      <c r="H488" s="9"/>
+      <c r="I488" s="9"/>
+      <c r="J488" s="9"/>
+      <c r="K488" s="5"/>
+    </row>
+    <row r="489" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B489" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C489" s="9"/>
+      <c r="D489" s="9"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="9"/>
+      <c r="G489" s="9"/>
+      <c r="H489" s="9"/>
+      <c r="I489" s="9"/>
+      <c r="J489" s="9"/>
+      <c r="K489" s="5"/>
+    </row>
+    <row r="490" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B490" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C490" s="9"/>
+      <c r="D490" s="9"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="9"/>
+      <c r="G490" s="9"/>
+      <c r="H490" s="9"/>
+      <c r="I490" s="9"/>
+      <c r="J490" s="9"/>
+      <c r="K490" s="5"/>
+    </row>
+    <row r="491" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B491" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C491" s="9"/>
+      <c r="D491" s="9"/>
+      <c r="E491" s="9"/>
+      <c r="F491" s="9"/>
+      <c r="G491" s="9"/>
+      <c r="H491" s="9"/>
+      <c r="I491" s="9"/>
+      <c r="J491" s="9"/>
+      <c r="K491" s="5"/>
+    </row>
+    <row r="492" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B492" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C492" s="9"/>
+      <c r="D492" s="9"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="9"/>
+      <c r="G492" s="9"/>
+      <c r="H492" s="9"/>
+      <c r="I492" s="9"/>
+      <c r="J492" s="9"/>
+      <c r="K492" s="5"/>
+    </row>
+    <row r="493" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B493" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C493" s="9"/>
+      <c r="D493" s="9"/>
+      <c r="E493" s="9"/>
+      <c r="F493" s="9"/>
+      <c r="G493" s="9"/>
+      <c r="H493" s="9"/>
+      <c r="I493" s="9"/>
+      <c r="J493" s="9"/>
+      <c r="K493" s="5"/>
+    </row>
+    <row r="494" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B494" s="4"/>
+      <c r="C494" s="9"/>
+      <c r="D494" s="9"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="9"/>
+      <c r="G494" s="9"/>
+      <c r="H494" s="9"/>
+      <c r="I494" s="9"/>
+      <c r="J494" s="9"/>
+      <c r="K494" s="5"/>
+    </row>
+    <row r="495" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B495" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C495" s="9"/>
+      <c r="D495" s="9"/>
+      <c r="E495" s="9"/>
+      <c r="F495" s="9"/>
+      <c r="G495" s="9"/>
+      <c r="H495" s="9"/>
+      <c r="I495" s="9"/>
+      <c r="J495" s="9"/>
+      <c r="K495" s="5"/>
+    </row>
+    <row r="496" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B496" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C496" s="9"/>
+      <c r="D496" s="9"/>
+      <c r="E496" s="9"/>
+      <c r="F496" s="9"/>
+      <c r="G496" s="9"/>
+      <c r="H496" s="9"/>
+      <c r="I496" s="9"/>
+      <c r="J496" s="9"/>
+      <c r="K496" s="5"/>
+    </row>
+    <row r="497" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B497" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C497" s="9"/>
+      <c r="D497" s="9"/>
+      <c r="E497" s="9"/>
+      <c r="F497" s="9"/>
+      <c r="G497" s="9"/>
+      <c r="H497" s="9"/>
+      <c r="I497" s="9"/>
+      <c r="J497" s="9"/>
+      <c r="K497" s="5"/>
+    </row>
+    <row r="498" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B498" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C498" s="9"/>
+      <c r="D498" s="9"/>
+      <c r="E498" s="9"/>
+      <c r="F498" s="9"/>
+      <c r="G498" s="9"/>
+      <c r="H498" s="9"/>
+      <c r="I498" s="9"/>
+      <c r="J498" s="9"/>
+      <c r="K498" s="5"/>
+    </row>
+    <row r="499" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B499" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C499" s="9"/>
+      <c r="D499" s="9"/>
+      <c r="E499" s="9"/>
+      <c r="F499" s="9"/>
+      <c r="G499" s="9"/>
+      <c r="H499" s="9"/>
+      <c r="I499" s="9"/>
+      <c r="J499" s="9"/>
+      <c r="K499" s="5"/>
+    </row>
+    <row r="500" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B500" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C500" s="9"/>
+      <c r="D500" s="9"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="9"/>
+      <c r="G500" s="9"/>
+      <c r="H500" s="9"/>
+      <c r="I500" s="9"/>
+      <c r="J500" s="9"/>
+      <c r="K500" s="5"/>
+    </row>
+    <row r="501" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B501" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C501" s="9"/>
+      <c r="D501" s="9"/>
+      <c r="E501" s="9"/>
+      <c r="F501" s="9"/>
+      <c r="G501" s="9"/>
+      <c r="H501" s="9"/>
+      <c r="I501" s="9"/>
+      <c r="J501" s="9"/>
+      <c r="K501" s="5"/>
+    </row>
+    <row r="502" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B502" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C502" s="9"/>
+      <c r="D502" s="9"/>
+      <c r="E502" s="9"/>
+      <c r="F502" s="9"/>
+      <c r="G502" s="9"/>
+      <c r="H502" s="9"/>
+      <c r="I502" s="9"/>
+      <c r="J502" s="9"/>
+      <c r="K502" s="5"/>
+    </row>
+    <row r="503" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B503" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C503" s="9"/>
+      <c r="D503" s="9"/>
+      <c r="E503" s="9"/>
+      <c r="F503" s="9"/>
+      <c r="G503" s="9"/>
+      <c r="H503" s="9"/>
+      <c r="I503" s="9"/>
+      <c r="J503" s="9"/>
+      <c r="K503" s="5"/>
+    </row>
+    <row r="504" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B504" s="4"/>
+      <c r="C504" s="9"/>
+      <c r="D504" s="9"/>
+      <c r="E504" s="9"/>
+      <c r="F504" s="9"/>
+      <c r="G504" s="9"/>
+      <c r="H504" s="9"/>
+      <c r="I504" s="9"/>
+      <c r="J504" s="9"/>
+      <c r="K504" s="5"/>
+    </row>
+    <row r="505" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B505" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C505" s="9"/>
+      <c r="D505" s="9"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="9"/>
+      <c r="G505" s="9"/>
+      <c r="H505" s="9"/>
+      <c r="I505" s="9"/>
+      <c r="J505" s="9"/>
+      <c r="K505" s="5"/>
+    </row>
+    <row r="506" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B506" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C506" s="9"/>
+      <c r="D506" s="9"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="9"/>
+      <c r="G506" s="9"/>
+      <c r="H506" s="9"/>
+      <c r="I506" s="9"/>
+      <c r="J506" s="9"/>
+      <c r="K506" s="5"/>
+    </row>
+    <row r="507" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B507" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C507" s="9"/>
+      <c r="D507" s="9"/>
+      <c r="E507" s="9"/>
+      <c r="F507" s="9"/>
+      <c r="G507" s="9"/>
+      <c r="H507" s="9"/>
+      <c r="I507" s="9"/>
+      <c r="J507" s="9"/>
+      <c r="K507" s="5"/>
+    </row>
+    <row r="508" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B508" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C508" s="9"/>
+      <c r="D508" s="9"/>
+      <c r="E508" s="9"/>
+      <c r="F508" s="9"/>
+      <c r="G508" s="9"/>
+      <c r="H508" s="9"/>
+      <c r="I508" s="9"/>
+      <c r="J508" s="9"/>
+      <c r="K508" s="5"/>
+    </row>
+    <row r="509" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B509" s="4"/>
+      <c r="C509" s="9"/>
+      <c r="D509" s="9"/>
+      <c r="E509" s="9"/>
+      <c r="F509" s="9"/>
+      <c r="G509" s="9"/>
+      <c r="H509" s="9"/>
+      <c r="I509" s="9"/>
+      <c r="J509" s="9"/>
+      <c r="K509" s="5"/>
+    </row>
+    <row r="510" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B510" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C510" s="9"/>
+      <c r="D510" s="9"/>
+      <c r="E510" s="9"/>
+      <c r="F510" s="9"/>
+      <c r="G510" s="9"/>
+      <c r="H510" s="9"/>
+      <c r="I510" s="9"/>
+      <c r="J510" s="9"/>
+      <c r="K510" s="5"/>
+    </row>
+    <row r="511" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B511" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C511" s="9"/>
+      <c r="D511" s="9"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="9"/>
+      <c r="G511" s="9"/>
+      <c r="H511" s="9"/>
+      <c r="I511" s="9"/>
+      <c r="J511" s="9"/>
+      <c r="K511" s="5"/>
+    </row>
+    <row r="512" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B512" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C512" s="9"/>
+      <c r="D512" s="9"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="9"/>
+      <c r="G512" s="9"/>
+      <c r="H512" s="9"/>
+      <c r="I512" s="9"/>
+      <c r="J512" s="9"/>
+      <c r="K512" s="5"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B513" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C513" s="9"/>
+      <c r="D513" s="9"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="9"/>
+      <c r="G513" s="9"/>
+      <c r="H513" s="9"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="9"/>
+      <c r="K513" s="5"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B514" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C514" s="9"/>
+      <c r="D514" s="9"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="9"/>
+      <c r="G514" s="9"/>
+      <c r="H514" s="9"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="9"/>
+      <c r="K514" s="5"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B515" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C515" s="9"/>
+      <c r="D515" s="9"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="9"/>
+      <c r="G515" s="9"/>
+      <c r="H515" s="9"/>
+      <c r="I515" s="9"/>
+      <c r="J515" s="9"/>
+      <c r="K515" s="5"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B516" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C516" s="9"/>
+      <c r="D516" s="9"/>
+      <c r="E516" s="9"/>
+      <c r="F516" s="9"/>
+      <c r="G516" s="9"/>
+      <c r="H516" s="9"/>
+      <c r="I516" s="9"/>
+      <c r="J516" s="9"/>
+      <c r="K516" s="5"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B517" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C517" s="9"/>
+      <c r="D517" s="9"/>
+      <c r="E517" s="9"/>
+      <c r="F517" s="9"/>
+      <c r="G517" s="9"/>
+      <c r="H517" s="9"/>
+      <c r="I517" s="9"/>
+      <c r="J517" s="9"/>
+      <c r="K517" s="5"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B518" s="4"/>
+      <c r="C518" s="9"/>
+      <c r="D518" s="9"/>
+      <c r="E518" s="9"/>
+      <c r="F518" s="9"/>
+      <c r="G518" s="9"/>
+      <c r="H518" s="9"/>
+      <c r="I518" s="9"/>
+      <c r="J518" s="9"/>
+      <c r="K518" s="5"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B519" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C519" s="9"/>
+      <c r="D519" s="9"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="9"/>
+      <c r="G519" s="9"/>
+      <c r="H519" s="9"/>
+      <c r="I519" s="9"/>
+      <c r="J519" s="9"/>
+      <c r="K519" s="5"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B520" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C520" s="9"/>
+      <c r="D520" s="9"/>
+      <c r="E520" s="9"/>
+      <c r="F520" s="9"/>
+      <c r="G520" s="9"/>
+      <c r="H520" s="9"/>
+      <c r="I520" s="9"/>
+      <c r="J520" s="9"/>
+      <c r="K520" s="5"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B521" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C521" s="9"/>
+      <c r="D521" s="9"/>
+      <c r="E521" s="9"/>
+      <c r="F521" s="9"/>
+      <c r="G521" s="9"/>
+      <c r="H521" s="9"/>
+      <c r="I521" s="9"/>
+      <c r="J521" s="9"/>
+      <c r="K521" s="5"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B522" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C522" s="9"/>
+      <c r="D522" s="9"/>
+      <c r="E522" s="9"/>
+      <c r="F522" s="9"/>
+      <c r="G522" s="9"/>
+      <c r="H522" s="9"/>
+      <c r="I522" s="9"/>
+      <c r="J522" s="9"/>
+      <c r="K522" s="5"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B523" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C523" s="9"/>
+      <c r="D523" s="9"/>
+      <c r="E523" s="9"/>
+      <c r="F523" s="9"/>
+      <c r="G523" s="9"/>
+      <c r="H523" s="9"/>
+      <c r="I523" s="9"/>
+      <c r="J523" s="9"/>
+      <c r="K523" s="5"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B524" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C524" s="7"/>
+      <c r="D524" s="7"/>
+      <c r="E524" s="7"/>
+      <c r="F524" s="7"/>
+      <c r="G524" s="7"/>
+      <c r="H524" s="7"/>
+      <c r="I524" s="7"/>
+      <c r="J524" s="7"/>
+      <c r="K524" s="8"/>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B528" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="26" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="26" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>